--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail0 Features.xlsx
@@ -3851,7 +3851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,29 +3862,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3905,115 +3903,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4030,72 +4018,66 @@
         <v>7.276524101921261e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.221438095893168</v>
+        <v>4.61049552115776e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.19867034092653</v>
+        <v>4.896293661507792e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.61049552115776e-06</v>
+        <v>-0.1057089758808889</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.896293661507792e-06</v>
+        <v>0.2783708724190552</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1057089758808889</v>
+        <v>0.08844743547955823</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2783708724190552</v>
+        <v>1.671686047215144</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08844743547955823</v>
+        <v>1.750471072916079</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.599843045297065</v>
+        <v>3.581554576607849</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.750471072916079</v>
+        <v>1.036775106300328e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.581554576607849</v>
+        <v>42279569.7481105</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.036775106300328e-14</v>
+        <v>2.634103863211104e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>42279569.7481105</v>
+        <v>18.53299801318857</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.634103863211104e-06</v>
+        <v>0.0001355294920235622</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>18.53299801318857</v>
+        <v>9.036935252202198</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001355294920235622</v>
+        <v>1.376419334623522</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.036935252202198</v>
+        <v>0.01106817843242089</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.376419334623522</v>
+        <v>2.90675841821251</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01106817843242089</v>
+        <v>0.9529566959086131</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.90675841821251</v>
+        <v>1.776344819403046</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9529566959086131</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.776344819403046</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2313500338873595</v>
       </c>
     </row>
@@ -4110,72 +4092,66 @@
         <v>5.595118974863636e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.967189006910276</v>
+        <v>3.472063777729596e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9.618387378711112</v>
+        <v>4.829450100090943e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.472063777729596e-06</v>
+        <v>-0.1035276431242004</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.829450100090943e-06</v>
+        <v>0.2598160022790311</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1035276431242004</v>
+        <v>0.07802452463538576</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2598160022790311</v>
+        <v>1.66396920174337</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07802452463538576</v>
+        <v>1.677023415595602</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.589679823477543</v>
+        <v>3.751440439354552</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.677023415595602</v>
+        <v>9.449995386304038e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.751440439354552</v>
+        <v>46025693.93401613</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.449995386304038e-15</v>
+        <v>2.410113330510823e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>46025693.93401613</v>
+        <v>20.01853477142829</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.410113330510823e-06</v>
+        <v>0.0001220857623386403</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>20.01853477142829</v>
+        <v>8.102934867269619</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001220857623386403</v>
+        <v>1.380825288004357</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.102934867269619</v>
+        <v>0.008015852467846481</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.380825288004357</v>
+        <v>3.123769255276922</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008015852467846481</v>
+        <v>0.9521665853452207</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.123769255276922</v>
+        <v>1.817389609840796</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9521665853452207</v>
+        <v>14</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.817389609840796</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2282197703079161</v>
       </c>
     </row>
@@ -4190,72 +4166,66 @@
         <v>4.409970432938346e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.664797497474581</v>
+        <v>2.65079847748603e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.82849474191055</v>
+        <v>4.778803674490301e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.65079847748603e-06</v>
+        <v>-0.100274438909249</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.778803674490301e-06</v>
+        <v>0.235272495475959</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.100274438909249</v>
+        <v>0.0652442090109162</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.235272495475959</v>
+        <v>1.705625541619349</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0652442090109162</v>
+        <v>1.681173900357059</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.641499732793105</v>
+        <v>3.81564405470571</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.681173900357059</v>
+        <v>9.134651834323822e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.81564405470571</v>
+        <v>48052451.25635812</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.134651834323822e-15</v>
+        <v>2.344141632869398e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>48052451.25635812</v>
+        <v>21.09225885758602</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.344141632869398e-06</v>
+        <v>0.000115528806614653</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.09225885758602</v>
+        <v>7.929688708478696</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000115528806614653</v>
+        <v>1.47051027027315</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.929688708478696</v>
+        <v>0.00726444708690868</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.47051027027315</v>
+        <v>3.187507535083526</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00726444708690868</v>
+        <v>0.9531591202117655</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.187507535083526</v>
+        <v>1.737760126058845</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9531591202117655</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.737760126058845</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2404926465655279</v>
       </c>
     </row>
@@ -4270,72 +4240,66 @@
         <v>3.57848763784699e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.341727801604828</v>
+        <v>2.070087173231967e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6.062914802313527</v>
+        <v>4.739756750817252e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.070087173231967e-06</v>
+        <v>-0.09649350118086336</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.739756750817252e-06</v>
+        <v>0.2089468194316131</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09649350118086336</v>
+        <v>0.05284656194871163</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2089468194316131</v>
+        <v>1.706482692338013</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05284656194871163</v>
+        <v>1.76814949847225</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.645102619989245</v>
+        <v>4.059240874523804</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.76814949847225</v>
+        <v>8.071199121243863e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.059240874523804</v>
+        <v>54946278.68356859</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.071199121243863e-15</v>
+        <v>2.068658652524333e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>54946278.68356859</v>
+        <v>24.36770513646357</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.068658652524333e-06</v>
+        <v>0.0001149056542354651</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>24.36770513646357</v>
+        <v>7.631266599164564</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001149056542354651</v>
+        <v>1.432721512365013</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.631266599164564</v>
+        <v>0.006691672097731085</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.432721512365013</v>
+        <v>3.262994951026729</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006691672097731085</v>
+        <v>0.9525557212413001</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.262994951026729</v>
+        <v>1.752092864231059</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9525557212413001</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.752092864231059</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2288513757064596</v>
       </c>
     </row>
@@ -4350,72 +4314,66 @@
         <v>2.990240717498417e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.013566945916405</v>
+        <v>1.664261050896895e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.410530313829844</v>
+        <v>4.708831961036555e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.664261050896895e-06</v>
+        <v>-0.09283005004040192</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.708831961036555e-06</v>
+        <v>0.1836176416955476</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.09283005004040192</v>
+        <v>0.04224109239820634</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1836176416955476</v>
+        <v>1.720323334861033</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04224109239820634</v>
+        <v>1.794183004758379</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.663385795410715</v>
+        <v>4.072372224507166</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.794183004758379</v>
+        <v>8.019231933919911e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.072372224507166</v>
+        <v>55053406.59561676</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.019231933919911e-15</v>
+        <v>2.068898630504937e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>55053406.59561676</v>
+        <v>24.30531025955364</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.068898630504937e-06</v>
+        <v>0.0001192547045747931</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>24.30531025955364</v>
+        <v>8.288435537224856</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001192547045747931</v>
+        <v>1.325481333223775</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.288435537224856</v>
+        <v>0.008192579211475839</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.325481333223775</v>
+        <v>3.173718069457067</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008192579211475839</v>
+        <v>0.952349217862809</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.173718069457067</v>
+        <v>1.747438659103137</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.952349217862809</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.747438659103137</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2326749072826744</v>
       </c>
     </row>
@@ -4430,72 +4388,66 @@
         <v>2.57134509061556e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.696575131758856</v>
+        <v>1.375461298248501e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.937868476773932</v>
+        <v>4.683633120350913e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.375461298248501e-06</v>
+        <v>-0.08921205110050637</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.683633120350913e-06</v>
+        <v>0.1597794090756045</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.08921205110050637</v>
+        <v>0.0334216393891248</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1597794090756045</v>
+        <v>1.728877326223405</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0334216393891248</v>
+        <v>1.673401288824903</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.672850844020064</v>
+        <v>4.254172845055699</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.673401288824903</v>
+        <v>7.34847879979345e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.254172845055699</v>
+        <v>59408712.72817353</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.34847879979345e-15</v>
+        <v>1.922608835861563e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>59408712.72817353</v>
+        <v>25.9356854213089</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.922608835861563e-06</v>
+        <v>0.0001273522898844336</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>25.9356854213089</v>
+        <v>8.975971957975533</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001273522898844336</v>
+        <v>1.229407578054018</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.975971957975533</v>
+        <v>0.01026052853595801</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.229407578054018</v>
+        <v>3.003518984538003</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01026052853595801</v>
+        <v>0.9528413818317493</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.003518984538003</v>
+        <v>1.707653841191288</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9528413818317493</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.707653841191288</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2426611330766759</v>
       </c>
     </row>
@@ -4510,72 +4462,66 @@
         <v>2.272926553671662e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.409998052392491</v>
+        <v>1.162985025921091e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.719212474701879</v>
+        <v>4.662565010334358e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.162985025921091e-06</v>
+        <v>-0.08533052637245039</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.662565010334358e-06</v>
+        <v>0.1356453176603276</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.08533052637245039</v>
+        <v>0.02562983173915797</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1356453176603276</v>
+        <v>1.734249820418904</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02562983173915797</v>
+        <v>1.712100321961739</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.6794549800648</v>
+        <v>4.23103996039315</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.712100321961739</v>
+        <v>5.67658142142391e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.23103996039315</v>
+        <v>73874425.33184946</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.67658142142391e-15</v>
+        <v>1.548717861947013e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>73874425.33184946</v>
+        <v>30.97954982313705</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.548717861947013e-06</v>
+        <v>0.0001293307523775306</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>30.97954982313705</v>
+        <v>7.862804632971177</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001293307523775306</v>
+        <v>1.314137171015862</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.862804632971177</v>
+        <v>0.007995705208489244</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.314137171015862</v>
+        <v>3.132627610057956</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007995705208489244</v>
+        <v>0.9529230216527436</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.132627610057956</v>
+        <v>1.723856769245915</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9529230216527436</v>
+        <v>27</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.723856769245915</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2362736831205509</v>
       </c>
     </row>
@@ -4590,72 +4536,66 @@
         <v>2.064637706451583e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.178119864784424</v>
+        <v>1.007302017898632e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8675251227470975</v>
+        <v>4.64455472388417e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.007302017898632e-06</v>
+        <v>-0.0813567318595293</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.64455472388417e-06</v>
+        <v>0.1115844618988159</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0813567318595293</v>
+        <v>0.01903630217754482</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1115844618988159</v>
+        <v>1.788507470227687</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01903630217754482</v>
+        <v>1.678663830919902</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.74500108425848</v>
+        <v>4.593576715410016</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.678663830919902</v>
+        <v>4.81591904819561e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.593576715410016</v>
+        <v>83947414.06941436</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.81591904819561e-15</v>
+        <v>1.382150525801239e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>83947414.06941436</v>
+        <v>33.9385921911912</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.382150525801239e-06</v>
+        <v>0.000116384924461198</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>33.9385921911912</v>
+        <v>7.376142788737745</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000116384924461198</v>
+        <v>1.433428095784131</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.376142788737745</v>
+        <v>0.006332210733885646</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.433428095784131</v>
+        <v>3.252882737558952</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006332210733885646</v>
+        <v>0.9533113982415257</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.252882737558952</v>
+        <v>1.682155498122103</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9533113982415257</v>
+        <v>37</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.682155498122103</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2708620219798465</v>
       </c>
     </row>
@@ -4670,72 +4610,66 @@
         <v>1.919608158447142e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.997172913626398</v>
+        <v>9.047380017524068e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.3411494376783422</v>
+        <v>4.628693019429682e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.047380017524068e-07</v>
+        <v>-0.07858236161164563</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.628693019429682e-06</v>
+        <v>0.09534819022011994</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07858236161164563</v>
+        <v>0.01524951316014737</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09534819022011994</v>
+        <v>1.804808571407096</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01524951316014737</v>
+        <v>1.838018196227546</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.767324481352578</v>
+        <v>4.384894217901667</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.838018196227546</v>
+        <v>3.376133367986592e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.384894217901667</v>
+        <v>119507971.955689</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.376133367986592e-15</v>
+        <v>9.777549626417152e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>119507971.955689</v>
+        <v>48.21846128091154</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.777549626417152e-07</v>
+        <v>0.0001114707994642914</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>48.21846128091154</v>
+        <v>7.48037518884981</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001114707994642914</v>
+        <v>1.543273455274926</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.48037518884981</v>
+        <v>0.0062374615001498</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.543273455274926</v>
+        <v>3.218797019779069</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0062374615001498</v>
+        <v>0.9545336003557821</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.218797019779069</v>
+        <v>1.674976479342448</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9545336003557821</v>
+        <v>77</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.674976479342448</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3033209437408146</v>
       </c>
     </row>
@@ -4750,72 +4684,66 @@
         <v>1.81395114505693e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8377543944665604</v>
+        <v>8.396941091534115e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.01663689209024266</v>
+        <v>4.614180197231639e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.396941091534115e-07</v>
+        <v>-0.07717642270189956</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.614180197231639e-06</v>
+        <v>0.08745041782790462</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07717642270189956</v>
+        <v>0.01359169131937102</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08745041782790462</v>
+        <v>1.807185050389967</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01359169131937102</v>
+        <v>1.869563634109867</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.77072034086377</v>
+        <v>4.599998361464328</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.869563634109867</v>
+        <v>3.067767780872277e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.599998361464328</v>
+        <v>132741225.6638336</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.067767780872277e-15</v>
+        <v>8.800792072668488e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>132741225.6638336</v>
+        <v>54.05478306044509</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.800792072668488e-07</v>
+        <v>0.0001144747555236877</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>54.05478306044509</v>
+        <v>7.574177735572616</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001144747555236877</v>
+        <v>1.544911744193971</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.574177735572616</v>
+        <v>0.006567207049002532</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.544911744193971</v>
+        <v>3.128579540423417</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006567207049002532</v>
+        <v>0.9552075173103554</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.128579540423417</v>
+        <v>1.623914834984608</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9552075173103554</v>
+        <v>81</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.623914834984608</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3232943084555437</v>
       </c>
     </row>
@@ -4830,72 +4758,66 @@
         <v>1.737215527223702e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6930807230471234</v>
+        <v>7.829880940687132e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2517578581152602</v>
+        <v>4.60066624663095e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.829880940687132e-07</v>
+        <v>-0.07514097980176776</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.60066624663095e-06</v>
+        <v>0.07935905230882688</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07514097980176776</v>
+        <v>0.01193405023275985</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07935905230882688</v>
+        <v>1.811558439297884</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01193405023275985</v>
+        <v>2.080451189609465</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.782773393736961</v>
+        <v>4.70535518770585</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.080451189609465</v>
+        <v>2.931926047152849e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.70535518770585</v>
+        <v>144174715.7024448</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.931926047152849e-15</v>
+        <v>8.14159734577435e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>144174715.7024448</v>
+        <v>60.94403702592209</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.14159734577435e-07</v>
+        <v>0.00011290218344803</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>60.94403702592209</v>
+        <v>7.387535430343767</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.00011290218344803</v>
+        <v>1.665177156880774</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.387535430343767</v>
+        <v>0.00616171340519499</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.665177156880774</v>
+        <v>3.274013790293286</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00616171340519499</v>
+        <v>0.9546815504124679</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.274013790293286</v>
+        <v>1.626992309456074</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9546815504124679</v>
+        <v>81</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.626992309456074</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3445979718240376</v>
       </c>
     </row>
@@ -4910,72 +4832,66 @@
         <v>1.684100748400385e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5695440761774594</v>
+        <v>7.367968737535174e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3679756982983857</v>
+        <v>4.58801966727455e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.367968737535174e-07</v>
+        <v>-0.0729326710328172</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.58801966727455e-06</v>
+        <v>0.07313219134989551</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0729326710328172</v>
+        <v>0.01066147049087679</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07313219134989551</v>
+        <v>1.816947384430233</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01066147049087679</v>
+        <v>1.853219643793556</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.793552137711003</v>
+        <v>4.751228108297141</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.853219643793556</v>
+        <v>2.875584094781062e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.751228108297141</v>
+        <v>146892997.3922353</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.875584094781062e-15</v>
+        <v>8.000338700142878e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>146892997.3922353</v>
+        <v>62.04806729917652</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.000338700142878e-07</v>
+        <v>0.000120383026919459</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>62.04806729917652</v>
+        <v>8.299046462328038</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000120383026919459</v>
+        <v>1.76313149328554</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.299046462328038</v>
+        <v>0.00829128132406742</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.76313149328554</v>
+        <v>3.298186834049581</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00829128132406742</v>
+        <v>0.9552683597759752</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.298186834049581</v>
+        <v>1.623559568347769</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9552683597759752</v>
+        <v>78</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.623559568347769</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4437394802177828</v>
       </c>
     </row>
@@ -4990,72 +4906,66 @@
         <v>1.647354112280318e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4640167487580772</v>
+        <v>7.012506460405181e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4098206006385388</v>
+        <v>4.576047805580846e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.012506460405181e-07</v>
+        <v>-0.07095792407583217</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.576047805580846e-06</v>
+        <v>0.06955997909571689</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07095792407583217</v>
+        <v>0.00987003552260639</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06955997909571689</v>
+        <v>1.821389510479933</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00987003552260639</v>
+        <v>1.804723297428837</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.800445057886308</v>
+        <v>5.093454970984189</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.804723297428837</v>
+        <v>2.502147420715496e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.093454970984189</v>
+        <v>172378060.2567691</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.502147420715496e-15</v>
+        <v>6.845128767625762e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>172378060.2567691</v>
+        <v>74.34929802401581</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.845128767625762e-07</v>
+        <v>0.0001086613660167083</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>74.34929802401581</v>
+        <v>7.507562368161881</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001086613660167083</v>
+        <v>1.60628923435384</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.507562368161881</v>
+        <v>0.006124534111541363</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.60628923435384</v>
+        <v>3.336702460158665</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006124534111541363</v>
+        <v>0.956263417273335</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.336702460158665</v>
+        <v>1.589418726723915</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.956263417273335</v>
+        <v>78</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.589418726723915</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.6140724438715571</v>
       </c>
     </row>
@@ -5070,72 +4980,66 @@
         <v>1.62128011568972e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3738647183957202</v>
+        <v>6.719638449367238e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.4133562377738582</v>
+        <v>4.564607474500434e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.719638449367238e-07</v>
+        <v>-0.06908469737205838</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.564607474500434e-06</v>
+        <v>0.06771181527871875</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06908469737205838</v>
+        <v>0.009355178081674702</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06771181527871875</v>
+        <v>1.84073301077026</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009355178081674702</v>
+        <v>1.875487273436903</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.822941271304716</v>
+        <v>4.67225216778696</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.875487273436903</v>
+        <v>1.891466441135335e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.67225216778696</v>
+        <v>236694006.1812458</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.891466441135335e-15</v>
+        <v>5.011078419413561e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>236694006.1812458</v>
+        <v>105.9676153176665</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.011078419413561e-07</v>
+        <v>8.532880215108196e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>105.9676153176665</v>
+        <v>6.759139919502007</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.532880215108196e-05</v>
+        <v>1.762188021800258</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.759139919502007</v>
+        <v>0.00389832930438577</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.762188021800258</v>
+        <v>3.693079943968162</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00389832930438577</v>
+        <v>0.956419115298529</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.693079943968162</v>
+        <v>1.580721630776128</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.956419115298529</v>
+        <v>78</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.580721630776128</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.7368957554999783</v>
       </c>
     </row>
@@ -5150,72 +5054,66 @@
         <v>1.601917007476413e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2998399479770836</v>
+        <v>6.445497486208167e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.3996350328266876</v>
+        <v>4.553641695733913e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.445497486208167e-07</v>
+        <v>-0.06706225534435531</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.553641695733913e-06</v>
+        <v>0.06687606892583052</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06706225534435531</v>
+        <v>0.00896867915923817</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06687606892583052</v>
+        <v>1.877140088752855</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00896867915923817</v>
+        <v>1.895084401366061</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.878777767687171</v>
+        <v>5.019473365628784</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.895084401366061</v>
+        <v>1.567628532607055e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.019473365628784</v>
+        <v>282385617.6653948</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.567628532607055e-15</v>
+        <v>4.233944933100823e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>282385617.6653948</v>
+        <v>125.0052654987405</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.233944933100823e-07</v>
+        <v>8.469241669155232e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>125.0052654987405</v>
+        <v>8.416419009780235</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>8.469241669155232e-05</v>
+        <v>1.677086482851543</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.416419009780235</v>
+        <v>0.005999281255848316</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.677086482851543</v>
+        <v>3.733684769027501</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005999281255848316</v>
+        <v>0.9568767073819388</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.733684769027501</v>
+        <v>1.444498043727436</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9568767073819388</v>
+        <v>77</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.444498043727436</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.072496651354777</v>
       </c>
     </row>
@@ -5230,72 +5128,66 @@
         <v>1.584516557713525e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2400941117509072</v>
+        <v>6.254721288735043e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3882336026555437</v>
+        <v>4.543084750428368e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.254721288735043e-07</v>
+        <v>-0.06551502260838392</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.543084750428368e-06</v>
+        <v>0.06805775540111007</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06551502260838392</v>
+        <v>0.008923894416553807</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06805775540111007</v>
+        <v>1.888913270596467</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008923894416553807</v>
+        <v>2.050869595640332</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.892479750674561</v>
+        <v>4.541258841777506</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.050869595640332</v>
+        <v>1.042602047952261e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.541258841777506</v>
+        <v>417938962.0563348</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.042602047952261e-15</v>
+        <v>2.871740983085312e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>417938962.0563348</v>
+        <v>182.1144025044441</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.871740983085312e-07</v>
+        <v>8.797742340512353e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>182.1144025044441</v>
+        <v>10.08400742960167</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>8.797742340512353e-05</v>
+        <v>1.596242979731546</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.08400742960167</v>
+        <v>0.008946178363092656</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.596242979731546</v>
+        <v>4.036673662248925</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008946178363092656</v>
+        <v>0.9584150109396021</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.036673662248925</v>
+        <v>1.4094529701711</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9584150109396021</v>
+        <v>77</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.4094529701711</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.394345854871659</v>
       </c>
     </row>
@@ -5310,72 +5202,66 @@
         <v>1.564193190892348e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1919971598400259</v>
+        <v>6.088134114090301e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.393573325539101</v>
+        <v>4.532918511355787e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.088134114090301e-07</v>
+        <v>-0.06340264578973256</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.532918511355787e-06</v>
+        <v>0.07098677505044805</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06340264578973256</v>
+        <v>0.009058087776884853</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.07098677505044805</v>
+        <v>1.900193284401409</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009058087776884853</v>
+        <v>2.302726695758649</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.911637483903704</v>
+        <v>4.646533491336749</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.302726695758649</v>
+        <v>1.410054617728591e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.646533491336749</v>
+        <v>310461556.1850199</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.410054617728591e-15</v>
+        <v>3.86985774204477e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>310461556.1850199</v>
+        <v>135.9100572000686</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.86985774204477e-07</v>
+        <v>0.0001112078034910826</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>135.9100572000686</v>
+        <v>11.45408585653333</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001112078034910826</v>
+        <v>1.475618095987921</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.45408585653333</v>
+        <v>0.01459002819580494</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.475618095987921</v>
+        <v>4.140596500010343</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01459002819580494</v>
+        <v>0.9594118733695967</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.140596500010343</v>
+        <v>1.338316270537541</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9594118733695967</v>
+        <v>72</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.338316270537541</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.754233395928662</v>
       </c>
     </row>
@@ -5390,72 +5276,66 @@
         <v>1.538540718801228e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1585861614016418</v>
+        <v>5.940727630654853e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.4118310311572824</v>
+        <v>4.523295208519891e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.940727630654853e-07</v>
+        <v>-0.06051201732882223</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.523295208519891e-06</v>
+        <v>0.07671445756227976</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06051201732882223</v>
+        <v>0.009544897214400298</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.07671445756227976</v>
+        <v>1.900541985980246</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009544897214400298</v>
+        <v>2.235706460467281</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.914159750923763</v>
+        <v>4.162593732456008</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.235706460467281</v>
+        <v>1.900650876960435e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.162593732456008</v>
+        <v>221804071.7868303</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.900650876960435e-15</v>
+        <v>5.405865306056488e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>221804071.7868303</v>
+        <v>93.50640912024593</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.405865306056488e-07</v>
+        <v>0.0001503625393673665</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>93.50640912024593</v>
+        <v>12.64303560466768</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001503625393673665</v>
+        <v>1.029645117612595</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>12.64303560466768</v>
+        <v>0.02403490298948558</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.029645117612595</v>
+        <v>3.42904497816965</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02403490298948558</v>
+        <v>0.95945232534391</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.42904497816965</v>
+        <v>1.36135402562248</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.95945232534391</v>
+        <v>72</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.36135402562248</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.523611107366482</v>
       </c>
     </row>
@@ -5470,72 +5350,66 @@
         <v>1.504033319044312e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1340202546423295</v>
+        <v>5.858981137652036e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.4413088502993858</v>
+        <v>4.514312486695707e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.858981137652036e-07</v>
+        <v>-0.05741488481456615</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.514312486695707e-06</v>
+        <v>0.086120590079304</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05741488481456615</v>
+        <v>0.01070952156991668</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.086120590079304</v>
+        <v>1.915107903199782</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01070952156991668</v>
+        <v>1.922159694522112</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.930997147300305</v>
+        <v>4.058712525958418</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.922159694522112</v>
+        <v>1.992837749381117e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.058712525958418</v>
+        <v>208664365.6846046</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.992837749381117e-15</v>
+        <v>5.750155922875615e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>208664365.6846046</v>
+        <v>86.76978476598379</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.750155922875615e-07</v>
+        <v>0.0001984562621665141</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>86.76978476598379</v>
+        <v>12.99435323223653</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001984562621665141</v>
+        <v>1.01179984257549</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.99435323223653</v>
+        <v>0.03350997808709937</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.01179984257549</v>
+        <v>2.730570894598232</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.03350997808709937</v>
+        <v>0.9601733393345633</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.730570894598232</v>
+        <v>1.267174295648399</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9601733393345633</v>
+        <v>69</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.267174295648399</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.038059471529357</v>
       </c>
     </row>
@@ -5550,72 +5424,66 @@
         <v>1.458466017600833e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1058645264820554</v>
+        <v>5.777170347696753e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.4812482332401116</v>
+        <v>4.50608396324768e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.777170347696753e-07</v>
+        <v>-0.05325792830032301</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.50608396324768e-06</v>
+        <v>0.1001409860401933</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05325792830032301</v>
+        <v>0.01285655763502188</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1001409860401933</v>
+        <v>1.90616879715349</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01285655763502188</v>
+        <v>1.894428491661688</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.920398407236058</v>
+        <v>4.50457346214797</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.894428491661688</v>
+        <v>2.389057763565246e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.50457346214797</v>
+        <v>172553310.0396324</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.389057763565246e-15</v>
+        <v>6.952814810054282e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>172553310.0396324</v>
+        <v>71.13334633029629</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.952814810054282e-07</v>
+        <v>0.0002028267184831513</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>71.13334633029629</v>
+        <v>12.9843852903392</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002028267184831513</v>
+        <v>1.005389084780451</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.9843852903392</v>
+        <v>0.03419542078835749</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.005389084780451</v>
+        <v>2.607038352849183</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03419542078835749</v>
+        <v>0.95837420282983</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.607038352849183</v>
+        <v>1.25374694633412</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.95837420282983</v>
+        <v>69</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.25374694633412</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.882244820635675</v>
       </c>
     </row>
@@ -5630,72 +5498,66 @@
         <v>1.403467134659115e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.06321995723023198</v>
+        <v>5.608363606889592e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.5183944393645015</v>
+        <v>4.498917461008601e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.608363606889592e-07</v>
+        <v>-0.0460417554115042</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.498917461008601e-06</v>
+        <v>0.1214604909097856</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0460417554115042</v>
+        <v>0.0168538907610517</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1214604909097856</v>
+        <v>1.905836871746103</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0168538907610517</v>
+        <v>1.78463608276075</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.915605596263026</v>
+        <v>4.321791550226072</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.78463608276075</v>
+        <v>3.790083381629954e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.321791550226072</v>
+        <v>110275009.2084001</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.790083381629954e-15</v>
+        <v>1.088200666120434e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>110275009.2084001</v>
+        <v>46.08960328469536</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.088200666120434e-06</v>
+        <v>0.0001854239706383758</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>46.08960328469536</v>
+        <v>13.20285162267405</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001854239706383758</v>
+        <v>1.003716711600843</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.20285162267405</v>
+        <v>0.0323222333947055</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.003716711600843</v>
+        <v>2.900495356963149</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0323222333947055</v>
+        <v>0.958401241298526</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.900495356963149</v>
+        <v>1.305375578082916</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.958401241298526</v>
+        <v>55</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.305375578082916</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.9720274628522747</v>
       </c>
     </row>
@@ -5710,72 +5572,66 @@
         <v>1.346295683481312e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.0001700228233611412</v>
+        <v>5.348367071377816e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.5278211197908931</v>
+        <v>4.493291199387769e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.348367071377816e-07</v>
+        <v>-0.03549491694974723</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.493291199387769e-06</v>
+        <v>0.1470709595809034</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03549491694974723</v>
+        <v>0.02286897960677128</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1470709595809034</v>
+        <v>1.817966100288384</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02286897960677128</v>
+        <v>1.776633823169702</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.796173375076328</v>
+        <v>5.968694876253625</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.776633823169702</v>
+        <v>4.339609765064634e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.968694876253625</v>
+        <v>100106070.2606734</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.339609765064634e-15</v>
+        <v>1.169248533795526e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>100106070.2606734</v>
+        <v>43.48820718296293</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.169248533795526e-06</v>
+        <v>0.0001854058227444129</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>43.48820718296293</v>
+        <v>13.92761036126549</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001854058227444129</v>
+        <v>1.139787601823994</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>13.92761036126549</v>
+        <v>0.03596471193780704</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.139787601823994</v>
+        <v>3.181721915860791</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.03596471193780704</v>
+        <v>0.9538631849695989</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.181721915860791</v>
+        <v>1.556893633853746</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9538631849695989</v>
+        <v>56</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.556893633853746</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.9783808532478002</v>
       </c>
     </row>
@@ -5790,72 +5646,66 @@
         <v>1.294971789068044e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.08815179011228086</v>
+        <v>5.143339879431755e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.5345499390216748</v>
+        <v>4.489245274829284e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.143339879431755e-07</v>
+        <v>-0.02618960640060626</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.489245274829284e-06</v>
+        <v>0.1660124742155334</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02618960640060626</v>
+        <v>0.02823441243708486</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1660124742155334</v>
+        <v>1.813038663159827</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02823441243708486</v>
+        <v>1.812700580323849</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.782722540992997</v>
+        <v>4.930388315831547</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.812700580323849</v>
+        <v>8.150481681547766e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.930388315831547</v>
+        <v>53616697.19210096</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>8.150481681547766e-15</v>
+        <v>2.182352527805456e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>53616697.19210096</v>
+        <v>23.43059898911834</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.182352527805456e-06</v>
+        <v>0.0002378795278834113</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>23.43059898911834</v>
+        <v>9.90684124366566</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002378795278834113</v>
+        <v>1.966317045821059</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.90684124366566</v>
+        <v>0.02334680601914086</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.966317045821059</v>
+        <v>3.069962785728197</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02334680601914086</v>
+        <v>0.9555510209317307</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.069962785728197</v>
+        <v>1.705011605701535</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9555510209317307</v>
+        <v>45</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.705011605701535</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3485730120612798</v>
       </c>
     </row>
@@ -5870,72 +5720,66 @@
         <v>1.251622010860164e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.1973119012144061</v>
+        <v>5.01240617362197e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5827325576545346</v>
+        <v>4.486333490585143e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.01240617362197e-07</v>
+        <v>-0.01987183595984504</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.486333490585143e-06</v>
+        <v>0.1775157158015195</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.01987183595984504</v>
+        <v>0.0319020094492696</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1775157158015195</v>
+        <v>1.805679341175029</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0319020094492696</v>
+        <v>1.756435825698566</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.773071011084346</v>
+        <v>4.265060199065348</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.756435825698566</v>
+        <v>1.313612718963703e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.265060199065348</v>
+        <v>34189146.58620018</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.313612718963703e-14</v>
+        <v>3.433683365854844e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>34189146.58620018</v>
+        <v>15.35478944070851</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.433683365854844e-06</v>
+        <v>0.0001704291904518459</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>15.35478944070851</v>
+        <v>9.128402235926201</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001704291904518459</v>
+        <v>1.848166938872484</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.128402235926201</v>
+        <v>0.0142014771197125</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.848166938872484</v>
+        <v>3.13456478285871</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0142014771197125</v>
+        <v>0.9543108476029181</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.13456478285871</v>
+        <v>1.701717963376984</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9543108476029181</v>
+        <v>5</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.701717963376984</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.210329229758921</v>
       </c>
     </row>
@@ -5950,72 +5794,66 @@
         <v>1.216990724135992e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3075499651811165</v>
+        <v>4.820707806373265e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.6580807604220564</v>
+        <v>4.484193801958513e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.820707806373265e-07</v>
+        <v>-0.01504306606270733</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.484193801958513e-06</v>
+        <v>0.1833103378599528</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.01504306606270733</v>
+        <v>0.03382654872933966</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1833103378599528</v>
+        <v>1.797258496467509</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03382654872933966</v>
+        <v>1.721409331617249</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.762515092034125</v>
+        <v>3.810369505190964</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.721409331617249</v>
+        <v>1.645824374773434e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.810369505190964</v>
+        <v>27066976.38029315</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.645824374773434e-14</v>
+        <v>4.326467537893479e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>27066976.38029315</v>
+        <v>12.05765845505179</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.326467537893479e-06</v>
+        <v>0.0001427495200488791</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>12.05765845505179</v>
+        <v>9.487548033848674</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001427495200488791</v>
+        <v>1.257145483851853</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.487548033848674</v>
+        <v>0.01284939358628941</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.257145483851853</v>
+        <v>3.005248998035146</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01284939358628941</v>
+        <v>0.9527147171993439</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.005248998035146</v>
+        <v>1.678237383264161</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9527147171993439</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.678237383264161</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1877921003136665</v>
       </c>
     </row>
@@ -6030,72 +5868,66 @@
         <v>1.190798015505282e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3992241120832853</v>
+        <v>4.576386870591685e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7217072499425532</v>
+        <v>4.482589179629987e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.576386870591685e-07</v>
+        <v>-0.01183380543222497</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.482589179629987e-06</v>
+        <v>0.1857918710076818</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01183380543222497</v>
+        <v>0.03465489913496724</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1857918710076818</v>
+        <v>1.77812666986903</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03465489913496724</v>
+        <v>1.691878184141552</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.737552455991952</v>
+        <v>3.566680600277633</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.691878184141552</v>
+        <v>1.878405003584601e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.566680600277633</v>
+        <v>22878202.03827193</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.878405003584601e-14</v>
+        <v>5.079026967557619e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>22878202.03827193</v>
+        <v>9.831799611187607</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.079026967557619e-06</v>
+        <v>0.0001514869762468783</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>9.831799611187607</v>
+        <v>10.50745193698975</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001514869762468783</v>
+        <v>1.111191885282583</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.50745193698975</v>
+        <v>0.01672515384293383</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.111191885282583</v>
+        <v>2.7569492643071</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01672515384293383</v>
+        <v>0.9530233083440586</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.7569492643071</v>
+        <v>1.712151782848855</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9530233083440586</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.712151782848855</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.182065772505255</v>
       </c>
     </row>
@@ -6110,72 +5942,66 @@
         <v>1.171746294816468e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4642243550936914</v>
+        <v>4.287354342317501e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.753489591195402</v>
+        <v>4.481353247946891e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.287354342317501e-07</v>
+        <v>-0.009120309374996678</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.481353247946891e-06</v>
+        <v>0.1865076014240506</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.009120309374996678</v>
+        <v>0.03486423650298825</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1865076014240506</v>
+        <v>1.759524938016373</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03486423650298825</v>
+        <v>1.718603612282171</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.706153336444181</v>
+        <v>3.556122260441675</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.718603612282171</v>
+        <v>1.889575756086817e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.556122260441675</v>
+        <v>23123780.40263112</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.889575756086817e-14</v>
+        <v>5.009554029057808e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>23123780.40263112</v>
+        <v>10.10373578874258</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.009554029057808e-06</v>
+        <v>0.0001610018798934988</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>10.10373578874258</v>
+        <v>10.87787828782618</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001610018798934988</v>
+        <v>1.110684139167469</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.87787828782618</v>
+        <v>0.01905106844768806</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.110684139167469</v>
+        <v>2.678238784931213</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01905106844768806</v>
+        <v>0.9537829451845468</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.678238784931213</v>
+        <v>1.738530728866931</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9537829451845468</v>
+        <v>4</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.738530728866931</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1770676318853089</v>
       </c>
     </row>
@@ -6190,72 +6016,66 @@
         <v>1.159101118183266e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5038502614120983</v>
+        <v>4.038878000539512e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7612995440754551</v>
+        <v>4.480466110138862e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.038878000539512e-07</v>
+        <v>-0.00603638495346368</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.480466110138862e-06</v>
+        <v>0.1866674947527249</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.00603638495346368</v>
+        <v>0.03487909608407844</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1866674947527249</v>
+        <v>1.751675425166724</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03487909608407844</v>
+        <v>1.701239140687688</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.693329563435985</v>
+        <v>3.492041326102885</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.701239140687688</v>
+        <v>1.959561626718072e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.492041326102885</v>
+        <v>21761009.26213969</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.959561626718072e-14</v>
+        <v>5.293773197705765e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>21761009.26213969</v>
+        <v>9.279337992975295</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.293773197705765e-06</v>
+        <v>0.0001803178870651273</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9.279337992975295</v>
+        <v>9.911364042673252</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001803178870651273</v>
+        <v>1.325397627670186</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.911364042673252</v>
+        <v>0.0177135523730039</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.325397627670186</v>
+        <v>2.808531196765141</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0177135523730039</v>
+        <v>0.952579731668154</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.808531196765141</v>
+        <v>1.714101060624024</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.952579731668154</v>
+        <v>4</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.714101060624024</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1578573796312754</v>
       </c>
     </row>
@@ -6270,72 +6090,66 @@
         <v>1.152434388774963e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.5237786416846453</v>
+        <v>3.930494612449899e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7618007151544681</v>
+        <v>4.479978092445904e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.930494612449899e-07</v>
+        <v>-0.002280219066978678</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.479978092445904e-06</v>
+        <v>0.1874851616997126</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.002280219066978678</v>
+        <v>0.03515365161692615</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1874851616997126</v>
+        <v>1.74409285772044</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03515365161692615</v>
+        <v>1.68738960215512</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.686351091323128</v>
+        <v>3.370100983775365</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.68738960215512</v>
+        <v>2.103932714083454e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.370100983775365</v>
+        <v>19804713.10631635</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.103932714083454e-14</v>
+        <v>5.765018837226627e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>19804713.10631635</v>
+        <v>8.252185038838473</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.765018837226627e-06</v>
+        <v>0.0002117959009288985</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>8.252185038838473</v>
+        <v>9.544627743187755</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002117959009288985</v>
+        <v>1.60323368728857</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.544627743187755</v>
+        <v>0.0192945893674827</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.60323368728857</v>
+        <v>2.779048651582547</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0192945893674827</v>
+        <v>0.9525614932937947</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.779048651582547</v>
+        <v>1.735414342840905</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9525614932937947</v>
+        <v>4</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.735414342840905</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1422882880027759</v>
       </c>
     </row>
@@ -6350,72 +6164,66 @@
         <v>1.152273279025893e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.5240648030023978</v>
+        <v>3.990894800535165e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7613514592149118</v>
+        <v>4.479962261140239e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.990894800535165e-07</v>
+        <v>0.00204328894108714</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.479962261140239e-06</v>
+        <v>0.1897798047059641</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.00204328894108714</v>
+        <v>0.0360154132589167</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1897798047059641</v>
+        <v>1.739466186664136</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.0360154132589167</v>
+        <v>1.663827729503424</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.679665937871086</v>
+        <v>3.306978091697641</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.663827729503424</v>
+        <v>2.185018105795693e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.306978091697641</v>
+        <v>19143663.71779884</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.185018105795693e-14</v>
+        <v>5.967353088819966e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>19143663.71779884</v>
+        <v>8.007651306897467</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.967353088819966e-06</v>
+        <v>0.0001799670760915406</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>8.007651306897467</v>
+        <v>10.06853755391303</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001799670760915406</v>
+        <v>1.327401667814175</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.06853755391303</v>
+        <v>0.01824424304943466</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.327401667814175</v>
+        <v>2.813554749787487</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01824424304943466</v>
+        <v>0.951122275440426</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.813554749787487</v>
+        <v>1.770249102020611</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.951122275440426</v>
+        <v>4</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.770249102020611</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1503584710183556</v>
       </c>
     </row>
@@ -6430,72 +6238,66 @@
         <v>1.159422029697229e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.4974753053000364</v>
+        <v>4.302646433970989e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7480920175759036</v>
+        <v>4.480418485890919e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.302646433970989e-07</v>
+        <v>0.005599178916564453</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.480418485890919e-06</v>
+        <v>0.1915943458123938</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.005599178916564453</v>
+        <v>0.0367367931859113</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1915943458123938</v>
+        <v>1.682710858054551</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0367367931859113</v>
+        <v>1.647694404655559</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.611465871350827</v>
+        <v>3.213817063184153</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.647694404655559</v>
+        <v>2.313531255447121e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.213817063184153</v>
+        <v>18740015.51826166</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.313531255447121e-14</v>
+        <v>6.001192198438064e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>18740015.51826166</v>
+        <v>8.124848347323553</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.001192198438064e-06</v>
+        <v>0.0001702801583397202</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>8.124848347323553</v>
+        <v>11.33720682555741</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001702801583397202</v>
+        <v>1.081519992141325</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.33720682555741</v>
+        <v>0.02188649334710055</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.081519992141325</v>
+        <v>2.576858254318497</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02188649334710055</v>
+        <v>0.9488402695528471</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.576858254318497</v>
+        <v>1.778396065039878</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9488402695528471</v>
+        <v>5</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.778396065039878</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1632718639812673</v>
       </c>
     </row>
@@ -6510,72 +6312,66 @@
         <v>1.172034927355935e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.448157189991033</v>
+        <v>4.426194685021539e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.7148346405841948</v>
+        <v>4.481184082001349e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.426194685021539e-07</v>
+        <v>0.007344151591452495</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.481184082001349e-06</v>
+        <v>0.1900324931055855</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.007344151591452495</v>
+        <v>0.03616590267273243</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1900324931055855</v>
+        <v>1.677779372258034</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03616590267273243</v>
+        <v>1.622526397795691</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.606970671433787</v>
+        <v>3.025536106492086</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.622526397795691</v>
+        <v>2.610435670810345e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.025536106492086</v>
+        <v>16534451.14170655</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.610435670810345e-14</v>
+        <v>6.777667077687079e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>16534451.14170655</v>
+        <v>7.136619817990068</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.777667077687079e-06</v>
+        <v>0.0001776299620064239</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>7.136619817990068</v>
+        <v>10.86878552458353</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001776299620064239</v>
+        <v>1.1349596721301</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.86878552458353</v>
+        <v>0.02098351600998413</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.1349596721301</v>
+        <v>2.606658683578986</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.02098351600998413</v>
+        <v>0.9485074594982257</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.606658683578986</v>
+        <v>1.794974751857678</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9485074594982257</v>
+        <v>5</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.794974751857678</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1549472572600693</v>
       </c>
     </row>
@@ -6590,72 +6386,66 @@
         <v>1.186891079182442e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.3957235481005834</v>
+        <v>4.426406869303261e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.6877387757105753</v>
+        <v>4.482123667819649e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.426406869303261e-07</v>
+        <v>0.008518650017990898</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.482123667819649e-06</v>
+        <v>0.1868558575321212</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.008518650017990898</v>
+        <v>0.03498362296774413</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1868558575321212</v>
+        <v>1.668001195954027</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03498362296774413</v>
+        <v>1.617184758502073</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.594235670316202</v>
+        <v>2.995552943960999</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.617184758502073</v>
+        <v>2.66295407062241e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>2.995552943960999</v>
+        <v>16482127.67012853</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.66295407062241e-14</v>
+        <v>6.770891778088293e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>16482127.67012853</v>
+        <v>7.234195209399764</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.770891778088293e-06</v>
+        <v>0.0001920191346496889</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>7.234195209399764</v>
+        <v>9.829802161538236</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001920191346496889</v>
+        <v>1.314560609320192</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.829802161538236</v>
+        <v>0.01855385090844428</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.314560609320192</v>
+        <v>2.665784198591937</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01855385090844428</v>
+        <v>0.9487335299700086</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.665784198591937</v>
+        <v>1.805705512248807</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9487335299700086</v>
+        <v>5</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.805705512248807</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.142758626796153</v>
       </c>
     </row>
@@ -6670,72 +6460,66 @@
         <v>1.201945650347138e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.3551647230581687</v>
+        <v>4.426406869303261e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.6885143920978112</v>
+        <v>4.483206267326775e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.426406869303261e-07</v>
+        <v>0.009561595673020127</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.483206267326775e-06</v>
+        <v>0.1832818412530984</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.009561595673020127</v>
+        <v>0.03367897510618981</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1832818412530984</v>
+        <v>1.662383400942223</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03367897510618981</v>
+        <v>1.628278471734887</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.584346986125654</v>
+        <v>3.056121065370376</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.628278471734887</v>
+        <v>2.558447836950518e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.056121065370376</v>
+        <v>17871454.68102964</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.558447836950518e-14</v>
+        <v>6.281048109503587e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>17871454.68102964</v>
+        <v>8.171398209479834</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.281048109503587e-06</v>
+        <v>0.0001919073912325721</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>8.171398209479834</v>
+        <v>9.423622142563046</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001919073912325721</v>
+        <v>1.389038136073274</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.423622142563046</v>
+        <v>0.01704226953329921</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.389038136073274</v>
+        <v>2.714556940909502</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01704226953329921</v>
+        <v>0.9480893647846048</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.714556940909502</v>
+        <v>1.796390030806003</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9480893647846048</v>
+        <v>6</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.796390030806003</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1435081117764447</v>
       </c>
     </row>
@@ -6750,72 +6534,66 @@
         <v>1.216579787596723e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.329093097466402</v>
+        <v>4.426406869303261e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.712642704692414</v>
+        <v>4.484439606748022e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.426406869303261e-07</v>
+        <v>0.01085005028666473</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.484439606748022e-06</v>
+        <v>0.1797849030980616</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.01085005028666473</v>
+        <v>0.03243800413171682</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1797849030980616</v>
+        <v>1.675119050926267</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03243800413171682</v>
+        <v>1.588009288765601</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.597462053960495</v>
+        <v>3.131838821933673</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.588009288765601</v>
+        <v>2.436233265909291e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.131838821933673</v>
+        <v>19626949.70295707</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.436233265909291e-14</v>
+        <v>5.785188826724667e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>19626949.70295707</v>
+        <v>9.384788467387548</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.785188826724667e-06</v>
+        <v>0.0001712586067009233</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9.384788467387548</v>
+        <v>9.837611235141521</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001712586067009233</v>
+        <v>1.222032394692225</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.837611235141521</v>
+        <v>0.01657416730628162</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.222032394692225</v>
+        <v>2.735662168261891</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01657416730628162</v>
+        <v>0.947619527627789</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.735662168261891</v>
+        <v>1.783327318352127</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.947619527627789</v>
+        <v>6</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.783327318352127</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1568325110168077</v>
       </c>
     </row>
@@ -6830,72 +6608,66 @@
         <v>1.231325927047328e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.3132272652353761</v>
+        <v>4.426406869303261e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.7490746933131263</v>
+        <v>4.485859205906421e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.426406869303261e-07</v>
+        <v>0.01232890851626621</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.485859205906421e-06</v>
+        <v>0.176697211490819</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.01232890851626621</v>
+        <v>0.03137310677434646</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.176697211490819</v>
+        <v>1.681562080529559</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03137310677434646</v>
+        <v>1.595502090523315</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.605153514610929</v>
+        <v>3.129998436148153</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.595502090523315</v>
+        <v>2.122614961788456e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.129998436148153</v>
+        <v>22507833.82473559</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.122614961788456e-14</v>
+        <v>5.052912106372573e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>22507833.82473559</v>
+        <v>10.75322223379391</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.052912106372573e-06</v>
+        <v>0.0001692527741600694</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.75322223379391</v>
+        <v>10.41616761266593</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001692527741600694</v>
+        <v>1.144146678179282</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.41616761266593</v>
+        <v>0.01836334169096464</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.144146678179282</v>
+        <v>2.598118179614298</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01836334169096464</v>
+        <v>0.9481799275178923</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.598118179614298</v>
+        <v>1.808980335713914</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9481799275178923</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.808980335713914</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.16401648162303</v>
       </c>
     </row>
@@ -7272,7 +7044,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.330219509873348</v>
+        <v>1.338074022013817</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.534560823911288</v>
@@ -7361,7 +7133,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.336442047099093</v>
+        <v>1.345027991430051</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.235668682412488</v>
@@ -7450,7 +7222,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.346666766368577</v>
+        <v>1.351824473182315</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.406132336502893</v>
@@ -7539,7 +7311,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.358740711936298</v>
+        <v>1.37187080228616</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.405763610136719</v>
@@ -7628,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.358991404085925</v>
+        <v>1.36939290756206</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.613208080947613</v>
@@ -7717,7 +7489,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.3688614680053</v>
+        <v>1.376341415871092</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.396564423547662</v>
@@ -7806,7 +7578,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.355006871282749</v>
+        <v>1.364087290508015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.486829728831913</v>
@@ -7895,7 +7667,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.33819658694622</v>
+        <v>1.346449798980793</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.383729836102851</v>
@@ -7984,7 +7756,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.32290876136682</v>
+        <v>1.333180076199345</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.499407094535604</v>
@@ -8073,7 +7845,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.324675499914972</v>
+        <v>1.331043736216943</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.318647173293752</v>
@@ -8162,7 +7934,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.3210414802464</v>
+        <v>1.3238553609158</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.538670045246193</v>
@@ -8251,7 +8023,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.302063202560798</v>
+        <v>1.298412427853414</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.587406315530576</v>
@@ -8340,7 +8112,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.290895810223785</v>
+        <v>1.290151517480182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.488503395730567</v>
@@ -8429,7 +8201,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.30401735236487</v>
+        <v>1.305278160941397</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.250950884366142</v>
@@ -8518,7 +8290,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.28661387094777</v>
+        <v>1.28678205723058</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.50765668727816</v>
@@ -8607,7 +8379,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.283475000400512</v>
+        <v>1.281253572026806</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.134533643463677</v>
@@ -8696,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.282471132606965</v>
+        <v>1.2804672171588</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.495611111545928</v>
@@ -8785,7 +8557,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.300553589788982</v>
+        <v>1.299803148416757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.50563308035629</v>
@@ -8874,7 +8646,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.291886150791092</v>
+        <v>1.293863894489105</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.51392347841273</v>
@@ -8963,7 +8735,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.291497678680294</v>
+        <v>1.287796260547524</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.325118170092493</v>
@@ -9052,7 +8824,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.294044891873461</v>
+        <v>1.297853426508404</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.585404731475309</v>
@@ -9141,7 +8913,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.298940376831279</v>
+        <v>1.304324684472327</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.561092989546948</v>
@@ -9230,7 +9002,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.316910281360368</v>
+        <v>1.323799964533619</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.360790728160479</v>
@@ -9319,7 +9091,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.348382700198059</v>
+        <v>1.351296702341865</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.422647136021801</v>
@@ -9408,7 +9180,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.315981477204846</v>
+        <v>1.320604388189639</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.500087719055718</v>
@@ -9497,7 +9269,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.344579093240497</v>
+        <v>1.354335828511983</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.271405818014279</v>
@@ -9586,7 +9358,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.371018776746694</v>
+        <v>1.384343716441104</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.079003102091478</v>
@@ -9675,7 +9447,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.370170067742654</v>
+        <v>1.381870165452149</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.365177595381646</v>
@@ -9764,7 +9536,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.372836105186568</v>
+        <v>1.388802366373985</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.415042759621724</v>
@@ -9853,7 +9625,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4021028254982</v>
+        <v>1.420462613088752</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.24434892038202</v>
@@ -9942,7 +9714,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.423983008819066</v>
+        <v>1.437837676456054</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.351280820848952</v>
@@ -10031,7 +9803,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.438609877265241</v>
+        <v>1.462144303422457</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.358771289695885</v>
@@ -10120,7 +9892,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.411405434368074</v>
+        <v>1.431095418075427</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.344967795764299</v>
@@ -10209,7 +9981,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.436304630362221</v>
+        <v>1.455318640608619</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.378340016593242</v>
@@ -10298,7 +10070,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.444375845912269</v>
+        <v>1.466679484728179</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.28903702003318</v>
@@ -10387,7 +10159,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.455042794878366</v>
+        <v>1.476569192416156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.478293745767226</v>
@@ -10476,7 +10248,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.416527659926345</v>
+        <v>1.441691234570275</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.559010328801217</v>
@@ -10565,7 +10337,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.395164996663033</v>
+        <v>1.421631801349744</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.613992997441172</v>
@@ -10654,7 +10426,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.408341847338766</v>
+        <v>1.436202125213245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.24775873965735</v>
@@ -10743,7 +10515,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.41543659833734</v>
+        <v>1.441877933850359</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.335402099105655</v>
@@ -10832,7 +10604,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.418839330383637</v>
+        <v>1.446216481182148</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.472864816529651</v>
@@ -10921,7 +10693,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.420745270172997</v>
+        <v>1.446484054917357</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.498560780050122</v>
@@ -11010,7 +10782,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.430089036236714</v>
+        <v>1.45796647831339</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.58477494956885</v>
@@ -11099,7 +10871,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.456431533637731</v>
+        <v>1.484891816708277</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.486790626201465</v>
@@ -11188,7 +10960,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.444210963109452</v>
+        <v>1.472337625910874</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.522301041602259</v>
@@ -11277,7 +11049,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.422419580109028</v>
+        <v>1.446487226559744</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.233072919879513</v>
@@ -11366,7 +11138,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.415191522203158</v>
+        <v>1.441819603298465</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.568170088849603</v>
@@ -11455,7 +11227,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.448514671536347</v>
+        <v>1.479894329705658</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.495741322219796</v>
@@ -11544,7 +11316,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442813247789656</v>
+        <v>1.472605587358635</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.410199535586435</v>
@@ -11633,7 +11405,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.445688657454042</v>
+        <v>1.468411500756469</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.509450509319353</v>
@@ -11722,7 +11494,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.407940697107082</v>
+        <v>1.432046491847634</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.540824107241759</v>
@@ -11811,7 +11583,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.43791653916907</v>
+        <v>1.462217925485464</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.440417123976339</v>
@@ -11900,7 +11672,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.41012512642883</v>
+        <v>1.428928304609179</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.471112111994725</v>
@@ -11989,7 +11761,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.39467826640697</v>
+        <v>1.417920030763919</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.521087241513305</v>
@@ -12078,7 +11850,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.419550165425298</v>
+        <v>1.442957563710131</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.536120492963965</v>
@@ -12167,7 +11939,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.405944033298154</v>
+        <v>1.429885690591214</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.580974588572619</v>
@@ -12256,7 +12028,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.374974842735159</v>
+        <v>1.400225221923864</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.349497877027883</v>
@@ -12345,7 +12117,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.384045735307061</v>
+        <v>1.407950102383609</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.481383996691768</v>
@@ -12434,7 +12206,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.365659102759436</v>
+        <v>1.387901092141305</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.535106879346466</v>
@@ -12523,7 +12295,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.383917699342386</v>
+        <v>1.407283521259953</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.143073646085716</v>
@@ -12612,7 +12384,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.424255298209727</v>
+        <v>1.446899267026727</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.33717128262332</v>
@@ -12701,7 +12473,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.430249874007613</v>
+        <v>1.452337650029141</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.47132496827337</v>
@@ -12790,7 +12562,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.393614773280095</v>
+        <v>1.411792250216492</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.417488541659962</v>
@@ -12879,7 +12651,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.366808804108337</v>
+        <v>1.387826083125426</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.513807825072445</v>
@@ -12968,7 +12740,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.371082054718425</v>
+        <v>1.383789056856156</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.16705470056861</v>
@@ -13057,7 +12829,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.392651567239065</v>
+        <v>1.416865158057712</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.461357052000714</v>
@@ -13146,7 +12918,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.389314658912688</v>
+        <v>1.406501090293065</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.258376398630085</v>
@@ -13235,7 +13007,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.417130297687701</v>
+        <v>1.441262404195467</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.189340333258411</v>
@@ -13324,7 +13096,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.422065001204007</v>
+        <v>1.448988134242976</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.504960328260335</v>
@@ -13413,7 +13185,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.409187809531925</v>
+        <v>1.436288744708729</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.178402861823392</v>
@@ -13502,7 +13274,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.431972301390641</v>
+        <v>1.459767719195493</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.429386140305223</v>
@@ -13591,7 +13363,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.430679239594535</v>
+        <v>1.457912522611267</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.49918972800949</v>
@@ -13680,7 +13452,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.424535965873872</v>
+        <v>1.458940356950154</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.559960187013303</v>
@@ -13769,7 +13541,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.422255286460442</v>
+        <v>1.458165219829015</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.382796850951715</v>
@@ -13858,7 +13630,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.420421141657296</v>
+        <v>1.452354558422311</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.55320256782342</v>
@@ -13947,7 +13719,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.400498946220089</v>
+        <v>1.436871589926265</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.570932977108744</v>
@@ -14036,7 +13808,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.403790962124226</v>
+        <v>1.439281477156473</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.296857250136925</v>
@@ -14125,7 +13897,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.42163396456411</v>
+        <v>1.457206810752431</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.487796436722159</v>
@@ -14214,7 +13986,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.430198267299979</v>
+        <v>1.465372076006643</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.547929927615217</v>
@@ -14303,7 +14075,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.472168822437777</v>
+        <v>1.503184905452575</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.439346963808119</v>
@@ -14392,7 +14164,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.457984081009429</v>
+        <v>1.496999508452887</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.598120196385093</v>
@@ -14678,7 +14450,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.394362766414239</v>
+        <v>1.389988136776317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.510016547690572</v>
@@ -14767,7 +14539,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403672024809245</v>
+        <v>1.396208218967727</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.420881381580396</v>
@@ -14856,7 +14628,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.410826175918569</v>
+        <v>1.399944014479501</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.56174231847478</v>
@@ -14945,7 +14717,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.408180016276917</v>
+        <v>1.404240105777957</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.489268335847472</v>
@@ -15034,7 +14806,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4016029103642</v>
+        <v>1.400644927943508</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.671644593075384</v>
@@ -15123,7 +14895,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.40015379808988</v>
+        <v>1.399895116781607</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.56166906945187</v>
@@ -15212,7 +14984,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39302010052626</v>
+        <v>1.392911623100578</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.849567461880754</v>
@@ -15301,7 +15073,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.388959235507665</v>
+        <v>1.386391162377151</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.605624577098685</v>
@@ -15390,7 +15162,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.371824852729741</v>
+        <v>1.369748979533497</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.726529239032778</v>
@@ -15479,7 +15251,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.378846080653218</v>
+        <v>1.374770212495115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.485637596600704</v>
@@ -15568,7 +15340,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.370929842216904</v>
+        <v>1.362899273368933</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.698823084922648</v>
@@ -15657,7 +15429,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.354605715696103</v>
+        <v>1.347000645921605</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.934039144891309</v>
@@ -15746,7 +15518,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.34771274501384</v>
+        <v>1.345002687681443</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.77859173344493</v>
@@ -15835,7 +15607,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.345985188363673</v>
+        <v>1.344679010870412</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.598289283159003</v>
@@ -15924,7 +15696,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.33999783446593</v>
+        <v>1.338412737408296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.885429177194521</v>
@@ -16013,7 +15785,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.349443590316981</v>
+        <v>1.345342720126001</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.395085631651529</v>
@@ -16102,7 +15874,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.328220917964759</v>
+        <v>1.330127944566174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.565186856085218</v>
@@ -16191,7 +15963,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346094024306351</v>
+        <v>1.346069539483098</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.601068956586792</v>
@@ -16280,7 +16052,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.353991430892316</v>
+        <v>1.351474245353926</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.351941649900624</v>
@@ -16369,7 +16141,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.348653430246614</v>
+        <v>1.340310887734282</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.305265330720625</v>
@@ -16458,7 +16230,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.343291755576959</v>
+        <v>1.339844775828748</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.594497236302972</v>
@@ -16547,7 +16319,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.334827028237421</v>
+        <v>1.332523222416576</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.552481526200014</v>
@@ -16636,7 +16408,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.328002628230984</v>
+        <v>1.32679700018014</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.55074883403684</v>
@@ -16725,7 +16497,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.341563259540221</v>
+        <v>1.335254341278893</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.554619887034014</v>
@@ -16814,7 +16586,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.32865722297216</v>
+        <v>1.322253294367835</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.478932219076366</v>
@@ -16903,7 +16675,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.349990869851277</v>
+        <v>1.34706088901044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.397374051143053</v>
@@ -16992,7 +16764,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.365732672774935</v>
+        <v>1.358933497721588</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.211602821954453</v>
@@ -17081,7 +16853,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.366602752169098</v>
+        <v>1.354505370531025</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.497889496658575</v>
@@ -17170,7 +16942,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.380947690330161</v>
+        <v>1.371306319185376</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.57407692386519</v>
@@ -17259,7 +17031,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.380070218010059</v>
+        <v>1.366209621459723</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.419133235301159</v>
@@ -17348,7 +17120,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.385607359024424</v>
+        <v>1.37319057809496</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.085111480670298</v>
@@ -17437,7 +17209,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.405140614023082</v>
+        <v>1.389066840834939</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.322601903227002</v>
@@ -17526,7 +17298,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.391151779034767</v>
+        <v>1.377065858878607</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.405818195557454</v>
@@ -17615,7 +17387,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.403512494455379</v>
+        <v>1.387419730025077</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.451674876481737</v>
@@ -17704,7 +17476,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.420665677830198</v>
+        <v>1.403967370756491</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.295575762811477</v>
@@ -17793,7 +17565,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.429269375279938</v>
+        <v>1.414135152234423</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.300907141208148</v>
@@ -17882,7 +17654,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420708781830804</v>
+        <v>1.407157776255628</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.387609026305674</v>
@@ -17971,7 +17743,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.429613557488931</v>
+        <v>1.416911877240567</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.49679380299796</v>
@@ -18060,7 +17832,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.439623522644943</v>
+        <v>1.43365220273905</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.329948058315576</v>
@@ -18149,7 +17921,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.440431601587055</v>
+        <v>1.43383184569091</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.44037920575775</v>
@@ -18238,7 +18010,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.438280325990072</v>
+        <v>1.431817844449475</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.434709170672999</v>
@@ -18327,7 +18099,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.449224722499491</v>
+        <v>1.435481218714392</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.465159143267736</v>
@@ -18416,7 +18188,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45724800132418</v>
+        <v>1.449664497162334</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.436916030927772</v>
@@ -18505,7 +18277,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.458669877918273</v>
+        <v>1.451913512405115</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.437892137322623</v>
@@ -18594,7 +18366,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.464788864746577</v>
+        <v>1.459099883484899</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.561737352160571</v>
@@ -18683,7 +18455,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.458978015333424</v>
+        <v>1.449394867648959</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.202038411000984</v>
@@ -18772,7 +18544,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462896129514577</v>
+        <v>1.453223125624607</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.460006266020949</v>
@@ -18861,7 +18633,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.4906561762247</v>
+        <v>1.479673780622749</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.920000283268926</v>
@@ -18950,7 +18722,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.474710325111326</v>
+        <v>1.464666412476712</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.750974342132808</v>
@@ -19039,7 +18811,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.477133859218232</v>
+        <v>1.465020570538871</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.926583864125268</v>
@@ -19128,7 +18900,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.470189023056237</v>
+        <v>1.458536213419223</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.820975545742075</v>
@@ -19217,7 +18989,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.493820489592381</v>
+        <v>1.477800211632363</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.992683032985227</v>
@@ -19306,7 +19078,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.469858198199289</v>
+        <v>1.453841073034154</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.936028030062482</v>
@@ -19395,7 +19167,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.456900047765051</v>
+        <v>1.444368389976217</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.898029538398162</v>
@@ -19484,7 +19256,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.467978673304519</v>
+        <v>1.455280653037641</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.759201758273548</v>
@@ -19573,7 +19345,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.442896553610206</v>
+        <v>1.428513025422022</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.950673745925341</v>
@@ -19662,7 +19434,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.406236213955423</v>
+        <v>1.402772426028296</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.807597234805983</v>
@@ -19751,7 +19523,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.410564800133481</v>
+        <v>1.405745831366287</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.934622642484039</v>
@@ -19840,7 +19612,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.408272923923473</v>
+        <v>1.40270954529004</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.727143792095453</v>
@@ -19929,7 +19701,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.412834811121678</v>
+        <v>1.411477157068614</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.488944216694284</v>
@@ -20018,7 +19790,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.435314560810456</v>
+        <v>1.430450525910399</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.770222655512431</v>
@@ -20107,7 +19879,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.443579662115672</v>
+        <v>1.443225808614408</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.618367531878637</v>
@@ -20196,7 +19968,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.426316126301725</v>
+        <v>1.428623744154859</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.543110752915233</v>
@@ -20285,7 +20057,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.420481010501061</v>
+        <v>1.427255474049776</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.544310072196157</v>
@@ -20374,7 +20146,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.420840151199022</v>
+        <v>1.424848816309964</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.493051830551248</v>
@@ -20463,7 +20235,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.435165194320753</v>
+        <v>1.445127569128252</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.818107693203257</v>
@@ -20552,7 +20324,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.425258567730319</v>
+        <v>1.43596429969908</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.406977803246698</v>
@@ -20641,7 +20413,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.439094708215483</v>
+        <v>1.451400357269617</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.393680771453989</v>
@@ -20730,7 +20502,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.446661351481636</v>
+        <v>1.459240479043832</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.775590206158395</v>
@@ -20819,7 +20591,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.441200617416081</v>
+        <v>1.455719002987419</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.318203123403757</v>
@@ -20908,7 +20680,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.460019356520182</v>
+        <v>1.475122740011922</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.595901651234812</v>
@@ -20997,7 +20769,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.455771700827104</v>
+        <v>1.471716110770571</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.520191699761761</v>
@@ -21086,7 +20858,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.441389021382122</v>
+        <v>1.458575462982391</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.65744775789358</v>
@@ -21175,7 +20947,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.442562549184942</v>
+        <v>1.4594474868239</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.365640579944977</v>
@@ -21264,7 +21036,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.454206917791568</v>
+        <v>1.464471749656378</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.359078381312116</v>
@@ -21353,7 +21125,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.414619285317934</v>
+        <v>1.429272881429897</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.542250196896478</v>
@@ -21442,7 +21214,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.409758236792368</v>
+        <v>1.422220352807189</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.367097207556489</v>
@@ -21531,7 +21303,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.422013929090419</v>
+        <v>1.432807978086757</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.50148828229577</v>
@@ -21620,7 +21392,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.42623258394141</v>
+        <v>1.436395109684075</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.516920378658387</v>
@@ -21709,7 +21481,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.444081149507715</v>
+        <v>1.447163516152332</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.412162901923617</v>
@@ -21798,7 +21570,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.429845088462682</v>
+        <v>1.436249838883683</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.396630631607604</v>
@@ -22084,7 +21856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.732277400586905</v>
+        <v>1.727191750463031</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.878054034801445</v>
@@ -22173,7 +21945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.743353389805207</v>
+        <v>1.73390257823392</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.741818161842407</v>
@@ -22262,7 +22034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.751536656729836</v>
+        <v>1.736248063091777</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.391999841253593</v>
@@ -22351,7 +22123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.765936196326835</v>
+        <v>1.744037550612487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.38103417982311</v>
@@ -22440,7 +22212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.768820908523774</v>
+        <v>1.747687432778067</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.699747975363538</v>
@@ -22529,7 +22301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.776526647327856</v>
+        <v>1.752369639656919</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.084504550561494</v>
@@ -22618,7 +22390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.77312583867063</v>
+        <v>1.74888079224145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.231331457268524</v>
@@ -22707,7 +22479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.760880278554076</v>
+        <v>1.734654510416558</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.184806077036227</v>
@@ -22796,7 +22568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.761336876127116</v>
+        <v>1.731778663599307</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.156387280626855</v>
@@ -22885,7 +22657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760035127048907</v>
+        <v>1.727751529838434</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.468201598723714</v>
@@ -22974,7 +22746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.753567820882678</v>
+        <v>1.7201940099222</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.681893980794902</v>
@@ -23063,7 +22835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.741509532364202</v>
+        <v>1.703258966526994</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.07219549210984</v>
@@ -23152,7 +22924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.735716567974276</v>
+        <v>1.700542832191145</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.234823630761937</v>
@@ -23241,7 +23013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.736979085900488</v>
+        <v>1.704636687793748</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.641493506351601</v>
@@ -23330,7 +23102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.733321502753425</v>
+        <v>1.704219015484641</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.704548854931759</v>
@@ -23419,7 +23191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740831244167885</v>
+        <v>1.711121484370061</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.975494085817805</v>
@@ -23508,7 +23280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.730949122555735</v>
+        <v>1.709575107804364</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.813595392004379</v>
@@ -23597,7 +23369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.740792188962195</v>
+        <v>1.715469089787341</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.776670838799692</v>
@@ -23686,7 +23458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.741285452983055</v>
+        <v>1.719650548700868</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.34272177263698</v>
@@ -23775,7 +23547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.735814324938644</v>
+        <v>1.71270493397682</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.568286151008927</v>
@@ -23864,7 +23636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.737452650767596</v>
+        <v>1.719504857885252</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.865700674573731</v>
@@ -23953,7 +23725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73439300911997</v>
+        <v>1.713388263374459</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.963697034522025</v>
@@ -24042,7 +23814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.735441777420161</v>
+        <v>1.716321862776354</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.728711142554891</v>
@@ -24131,7 +23903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.733869494945476</v>
+        <v>1.717644892036805</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.664638939601054</v>
@@ -24220,7 +23992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.734302998717736</v>
+        <v>1.719364014190379</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.567181520888076</v>
@@ -24309,7 +24081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.749954198566571</v>
+        <v>1.729102669648113</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.707537056586733</v>
@@ -24398,7 +24170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.757759609118098</v>
+        <v>1.736617853108358</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.209382651393808</v>
@@ -24487,7 +24259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758791974959563</v>
+        <v>1.732665477870102</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.405487687760167</v>
@@ -24576,7 +24348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.76039554720868</v>
+        <v>1.735361913934445</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.360838258496103</v>
@@ -24665,7 +24437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.772086676919149</v>
+        <v>1.750649310801899</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.585471569061223</v>
@@ -24754,7 +24526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778497647756066</v>
+        <v>1.757478054597859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.140583498761568</v>
@@ -24843,7 +24615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.788191754662178</v>
+        <v>1.771642641698028</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.155056180518899</v>
@@ -24932,7 +24704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.778383012683111</v>
+        <v>1.756922307098261</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.850341071540128</v>
@@ -25021,7 +24793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.786248563064338</v>
+        <v>1.764477363548492</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.782609048249745</v>
@@ -25110,7 +24882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.795951596204346</v>
+        <v>1.774831272624966</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.469629182917389</v>
@@ -25199,7 +24971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.792371454258582</v>
+        <v>1.773997077812337</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.348674153356118</v>
@@ -25288,7 +25060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.788727759376652</v>
+        <v>1.776842861712953</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.609298011409461</v>
@@ -25377,7 +25149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.791224738563368</v>
+        <v>1.780217685227592</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.792712117528348</v>
@@ -25466,7 +25238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.805779626367954</v>
+        <v>1.794087853627396</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.826416156045232</v>
@@ -25555,7 +25327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.799755434384493</v>
+        <v>1.786937306882778</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.617348044998332</v>
@@ -25644,7 +25416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.804799652629586</v>
+        <v>1.797558504121703</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.854719407860852</v>
@@ -25733,7 +25505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.811926215400034</v>
+        <v>1.804255602644874</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.576611610990608</v>
@@ -25822,7 +25594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.814664031834231</v>
+        <v>1.808547200397579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.671550993966247</v>
@@ -25911,7 +25683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.828680512505819</v>
+        <v>1.818418153069764</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.772953256459037</v>
@@ -26000,7 +25772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.822315811172419</v>
+        <v>1.808643118426731</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.842170420712457</v>
@@ -26089,7 +25861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.823599322550942</v>
+        <v>1.804967081785949</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.143565124562852</v>
@@ -26178,7 +25950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.80923422396934</v>
+        <v>1.792421868583105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.316153944957497</v>
@@ -26267,7 +26039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.814591623762407</v>
+        <v>1.804700029174805</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.114754902062467</v>
@@ -26356,7 +26128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.80257210157658</v>
+        <v>1.791000293099605</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.246309661255987</v>
@@ -26445,7 +26217,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.801048559089118</v>
+        <v>1.787633419209916</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.835036390892628</v>
@@ -26534,7 +26306,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.80373550091709</v>
+        <v>1.789455355511473</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.743817332540083</v>
@@ -26623,7 +26395,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.811679698147357</v>
+        <v>1.801096840463246</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.083019492367788</v>
@@ -26712,7 +26484,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.804343649053407</v>
+        <v>1.79367785113583</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.530150894752049</v>
@@ -26801,7 +26573,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.792082980843121</v>
+        <v>1.78199312164642</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.63233823038387</v>
@@ -26890,7 +26662,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.803047884356013</v>
+        <v>1.797281160756619</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.811403140478902</v>
@@ -26979,7 +26751,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.793469217601476</v>
+        <v>1.787213884684168</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.547256884067005</v>
@@ -27068,7 +26840,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.777380361658253</v>
+        <v>1.775953334353655</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.772744323157741</v>
@@ -27157,7 +26929,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.783955791288862</v>
+        <v>1.779305509976786</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.970110181872376</v>
@@ -27246,7 +27018,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.770998925564276</v>
+        <v>1.770481225522961</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.777789924796899</v>
@@ -27335,7 +27107,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.773738859144816</v>
+        <v>1.770292367894138</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.288218694230631</v>
@@ -27424,7 +27196,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.771033594557114</v>
+        <v>1.765834895036412</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.914941710389309</v>
@@ -27513,7 +27285,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.779135922921543</v>
+        <v>1.773093969486699</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.818327908668833</v>
@@ -27602,7 +27374,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.774414814480844</v>
+        <v>1.767845632128618</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.8315584362117</v>
@@ -27691,7 +27463,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.777485634408525</v>
+        <v>1.776283331840729</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.890293052371451</v>
@@ -27780,7 +27552,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.771054764550968</v>
+        <v>1.7670724026927</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.260493098386875</v>
@@ -27869,7 +27641,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.779058996312371</v>
+        <v>1.773820703649169</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.643472401266728</v>
@@ -27958,7 +27730,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.77245388820568</v>
+        <v>1.765878070998526</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.428621868907324</v>
@@ -28047,7 +27819,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.788126274520971</v>
+        <v>1.775130544519883</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.304423286711318</v>
@@ -28136,7 +27908,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.794309790863373</v>
+        <v>1.784323024455566</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.326754366787653</v>
@@ -28225,7 +27997,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.791383271186057</v>
+        <v>1.780187214019102</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.167156171762666</v>
@@ -28314,7 +28086,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.793905306820502</v>
+        <v>1.784074334119577</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.961925334500841</v>
@@ -28403,7 +28175,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.78698973354283</v>
+        <v>1.777159013293807</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.23401385369458</v>
@@ -28492,7 +28264,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.786026179059083</v>
+        <v>1.784331578722754</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.169033948527906</v>
@@ -28581,7 +28353,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.781546584905111</v>
+        <v>1.78336546287353</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.878160418735982</v>
@@ -28670,7 +28442,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.787450398679858</v>
+        <v>1.792265175079993</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.94573839449535</v>
@@ -28759,7 +28531,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.782477641479729</v>
+        <v>1.793260172263471</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.815984709172552</v>
@@ -28848,7 +28620,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.787295248803727</v>
+        <v>1.796311030622278</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.707347617291947</v>
@@ -28937,7 +28709,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.789504264300399</v>
+        <v>1.796087860805023</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.873612238122083</v>
@@ -29026,7 +28798,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.792295035957114</v>
+        <v>1.798748685771607</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.819016351501135</v>
@@ -29115,7 +28887,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.810545128724806</v>
+        <v>1.817384042013056</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.571466116792064</v>
@@ -29204,7 +28976,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.809308609134983</v>
+        <v>1.822625260775288</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.074653269356634</v>
@@ -29490,7 +29262,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.769971784602383</v>
+        <v>1.736241812521983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.235993138738904</v>
@@ -29579,7 +29351,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.757359361481309</v>
+        <v>1.721450312172003</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.368000741800951</v>
@@ -29668,7 +29440,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.754752307269873</v>
+        <v>1.719545365761124</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.37283354543843</v>
@@ -29757,7 +29529,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.761704154754367</v>
+        <v>1.720610924068764</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.674708584290116</v>
@@ -29846,7 +29618,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.756670740079522</v>
+        <v>1.715937956876922</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.21184778523073</v>
@@ -29935,7 +29707,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.749140166680343</v>
+        <v>1.710457145567793</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.336667493775835</v>
@@ -30024,7 +29796,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.757040470331422</v>
+        <v>1.719713170636161</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.990798412729584</v>
@@ -30113,7 +29885,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.753538303254908</v>
+        <v>1.711649493137888</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.339248721439252</v>
@@ -30202,7 +29974,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.750682554290432</v>
+        <v>1.699186835234271</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.552857379109684</v>
@@ -30291,7 +30063,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.745255103674458</v>
+        <v>1.696807784645013</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.540661356658752</v>
@@ -30380,7 +30152,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.741115101262938</v>
+        <v>1.689324878306431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.895107129967955</v>
@@ -30469,7 +30241,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.730537066474397</v>
+        <v>1.675560373095361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.935298046019232</v>
@@ -30558,7 +30330,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.726526088974584</v>
+        <v>1.669392805408291</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.455316659269273</v>
@@ -30647,7 +30419,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.721862085040727</v>
+        <v>1.663160553846256</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.147346269743779</v>
@@ -30736,7 +30508,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723470453486498</v>
+        <v>1.6644143508791</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.699867714016095</v>
@@ -30825,7 +30597,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.705521089383799</v>
+        <v>1.653125040922709</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.789343878553087</v>
@@ -30914,7 +30686,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710557223856242</v>
+        <v>1.651196185682921</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.948019363317698</v>
@@ -31003,7 +30775,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.717469392182372</v>
+        <v>1.655362997078733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.912673298823072</v>
@@ -31092,7 +30864,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711224794041641</v>
+        <v>1.65606893441976</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.766932967034431</v>
@@ -31181,7 +30953,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.717721820402546</v>
+        <v>1.662822284228129</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.691806881734325</v>
@@ -31270,7 +31042,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717710336981942</v>
+        <v>1.663058115889468</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.849238319954114</v>
@@ -31359,7 +31131,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718931540017024</v>
+        <v>1.658401256112217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.675346310261232</v>
@@ -31448,7 +31220,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722673171389665</v>
+        <v>1.663854349268309</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.57023340803667</v>
@@ -31537,7 +31309,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.719671130789257</v>
+        <v>1.671910087891287</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.935260973976627</v>
@@ -31626,7 +31398,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71802341213895</v>
+        <v>1.670219566358999</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.946423743111125</v>
@@ -31715,7 +31487,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.731071258779312</v>
+        <v>1.681529651909303</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.716398493310995</v>
@@ -31804,7 +31576,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.738466940650533</v>
+        <v>1.690352327040469</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.363111378333713</v>
@@ -31893,7 +31665,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732327187227239</v>
+        <v>1.684666105227192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.540566344980178</v>
@@ -31982,7 +31754,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738526693777749</v>
+        <v>1.693784890817792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.353925826363318</v>
@@ -32071,7 +31843,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734094175480727</v>
+        <v>1.69476751890751</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.648689484167786</v>
@@ -32160,7 +31932,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.757461313931835</v>
+        <v>1.71808481462083</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.609915780983743</v>
@@ -32249,7 +32021,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.767756610039446</v>
+        <v>1.745046003105139</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.901467070318604</v>
@@ -32338,7 +32110,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.761810773633011</v>
+        <v>1.742219469531821</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.040823154352339</v>
@@ -32427,7 +32199,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.771956714958156</v>
+        <v>1.73623908397822</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.919741146950353</v>
@@ -32516,7 +32288,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765287047331207</v>
+        <v>1.727628456651176</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.722935539746124</v>
@@ -32605,7 +32377,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.762358403993387</v>
+        <v>1.727494849480727</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.811684890653074</v>
@@ -32694,7 +32466,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.759155321102381</v>
+        <v>1.728785141650016</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.739350974325273</v>
@@ -32783,7 +32555,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.758463761903666</v>
+        <v>1.724104233039156</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.872045822335801</v>
@@ -32872,7 +32644,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763694578509116</v>
+        <v>1.724166697742759</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.594528259203563</v>
@@ -32961,7 +32733,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.771259502998495</v>
+        <v>1.728063643548571</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.802442833837955</v>
@@ -33050,7 +32822,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.769575735911618</v>
+        <v>1.729009520732379</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.763205256429256</v>
@@ -33139,7 +32911,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.774269633995776</v>
+        <v>1.736895681802341</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.613374436362619</v>
@@ -33228,7 +33000,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.783685063024681</v>
+        <v>1.744772766129454</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.868216517061362</v>
@@ -33317,7 +33089,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.791981559510089</v>
+        <v>1.75505135436651</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.64206598510528</v>
@@ -33406,7 +33178,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.79416912079831</v>
+        <v>1.751292270093399</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.032931737129619</v>
@@ -33495,7 +33267,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.790650871155989</v>
+        <v>1.743352049801252</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.105035853737169</v>
@@ -33584,7 +33356,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.782125254743633</v>
+        <v>1.729744563173217</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.849755309549928</v>
@@ -33673,7 +33445,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.792707658674283</v>
+        <v>1.740733512237546</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.05315708346547</v>
@@ -33762,7 +33534,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.776992906808211</v>
+        <v>1.734392453370798</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.153932662819819</v>
@@ -33851,7 +33623,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.784056656709797</v>
+        <v>1.743949750874438</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.810584170383</v>
@@ -33940,7 +33712,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.782546973157055</v>
+        <v>1.736876111773829</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.003359141915236</v>
@@ -34029,7 +33801,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.785588771023687</v>
+        <v>1.747678627247792</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.168562130183866</v>
@@ -34118,7 +33890,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780631901505549</v>
+        <v>1.750461740378141</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.959464764948889</v>
@@ -34207,7 +33979,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.782561966064407</v>
+        <v>1.756191022608969</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.275749709727458</v>
@@ -34296,7 +34068,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.773743472292059</v>
+        <v>1.748820010925568</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.616022842679635</v>
@@ -34385,7 +34157,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.771607080061731</v>
+        <v>1.744301068319774</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.898535268044736</v>
@@ -34474,7 +34246,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.762253542969711</v>
+        <v>1.736006111424625</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.850743529269448</v>
@@ -34563,7 +34335,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.760159310130706</v>
+        <v>1.732987482739026</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.218707199549958</v>
@@ -34652,7 +34424,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.74679957022812</v>
+        <v>1.720153195493362</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.592880900860543</v>
@@ -34741,7 +34513,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.754485402526988</v>
+        <v>1.728057505022832</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.311208544255679</v>
@@ -34830,7 +34602,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.751263731752817</v>
+        <v>1.725063158429694</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.853264666282015</v>
@@ -34919,7 +34691,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.745609536958033</v>
+        <v>1.722097114905309</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.947101221349029</v>
@@ -35008,7 +34780,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.739801178578756</v>
+        <v>1.717147616296566</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.651506685960823</v>
@@ -35097,7 +34869,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.747046548848179</v>
+        <v>1.730490829269995</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.129154141048059</v>
@@ -35186,7 +34958,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.750493586219216</v>
+        <v>1.732634218108038</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.760167419322058</v>
@@ -35275,7 +35047,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.75620287562189</v>
+        <v>1.740732144803288</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.699858492527434</v>
@@ -35364,7 +35136,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.751103015395728</v>
+        <v>1.729936119021221</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.442396966078059</v>
@@ -35453,7 +35225,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.761675733027767</v>
+        <v>1.736387349101792</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.34979091112897</v>
@@ -35542,7 +35314,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.761385403314844</v>
+        <v>1.739300643987098</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.151185456949826</v>
@@ -35631,7 +35403,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.765374968719523</v>
+        <v>1.746026289256686</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.023351294856765</v>
@@ -35720,7 +35492,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.771054735903994</v>
+        <v>1.749053175938134</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.818363806973371</v>
@@ -35809,7 +35581,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.773995032717619</v>
+        <v>1.747207096665927</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.330020163432506</v>
@@ -35898,7 +35670,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.771136931485774</v>
+        <v>1.74778877910874</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.353003185889582</v>
@@ -35987,7 +35759,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.756450361223131</v>
+        <v>1.733875387069974</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.242077289163521</v>
@@ -36076,7 +35848,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.761100351634997</v>
+        <v>1.741440679893751</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.565362963276988</v>
@@ -36165,7 +35937,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.767259115125606</v>
+        <v>1.749496887922196</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.474711171931919</v>
@@ -36254,7 +36026,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.768929586983603</v>
+        <v>1.747484631855115</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.498685865094463</v>
@@ -36343,7 +36115,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.777773464849779</v>
+        <v>1.75202312330004</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.286413141993786</v>
@@ -36432,7 +36204,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.782904971935251</v>
+        <v>1.75814848230406</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.50690016184087</v>
@@ -36521,7 +36293,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.78304472257419</v>
+        <v>1.762146020459249</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.295967480457231</v>
@@ -36610,7 +36382,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.782646764655385</v>
+        <v>1.764974715521686</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.335080686242687</v>
@@ -36896,7 +36668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.511988762301156</v>
+        <v>1.488402522361821</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989992402066587</v>
@@ -36985,7 +36757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524527813529932</v>
+        <v>1.501337866245914</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.01690444697428</v>
@@ -37074,7 +36846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549960261636626</v>
+        <v>1.526988107010623</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.938301905365668</v>
@@ -37163,7 +36935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.553955331131491</v>
+        <v>1.52859794306494</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.923248153167906</v>
@@ -37252,7 +37024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.589401970055767</v>
+        <v>1.559617915832057</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.09284333244859</v>
@@ -37341,7 +37113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659540670938977</v>
+        <v>1.626892508581713</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.432805770948465</v>
@@ -37430,7 +37202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663225586466817</v>
+        <v>1.629386620573261</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.640822657687226</v>
@@ -37519,7 +37291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.641670310682773</v>
+        <v>1.60998092926618</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.411240385974409</v>
@@ -37608,7 +37380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640518349922432</v>
+        <v>1.608745253352914</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.39596374785341</v>
@@ -37697,7 +37469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643921929699763</v>
+        <v>1.608684116972226</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.364966854863785</v>
@@ -37786,7 +37558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634870068081559</v>
+        <v>1.604141967904078</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.27123843956097</v>
@@ -37875,7 +37647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620247317093207</v>
+        <v>1.590191368220453</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.139477716011462</v>
@@ -37964,7 +37736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605840908858631</v>
+        <v>1.573780405517562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.421686837852703</v>
@@ -38053,7 +37825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.599357603976525</v>
+        <v>1.567374257271025</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.190804717145907</v>
@@ -38142,7 +37914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588578979607581</v>
+        <v>1.557962406417839</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.098333106086882</v>
@@ -38231,7 +38003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595843543307813</v>
+        <v>1.570760175876993</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.018343870110527</v>
@@ -38320,7 +38092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569386113270059</v>
+        <v>1.544678312932237</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.155377247511238</v>
@@ -38409,7 +38181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562714510518544</v>
+        <v>1.534758198505376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.902082048865534</v>
@@ -38498,7 +38270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.566650864647286</v>
+        <v>1.537656354336703</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.962160849055364</v>
@@ -38587,7 +38359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560752331797336</v>
+        <v>1.530584488890914</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.945198634223151</v>
@@ -38676,7 +38448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555527036529416</v>
+        <v>1.525014123264693</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.992016932374288</v>
@@ -38765,7 +38537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535601717529059</v>
+        <v>1.505721792909683</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.872320784035391</v>
@@ -38854,7 +38626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533176749124577</v>
+        <v>1.503089715791562</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.045581599233693</v>
@@ -38943,7 +38715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.521619855784337</v>
+        <v>1.492539182464522</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.883069451225879</v>
@@ -39032,7 +38804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.482838083309085</v>
+        <v>1.461273168875271</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.627438764495293</v>
@@ -39121,7 +38893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.475055874694052</v>
+        <v>1.45374422841138</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.495434234982781</v>
@@ -39210,7 +38982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.482174971380431</v>
+        <v>1.459506758665488</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.415848856132017</v>
@@ -39299,7 +39071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.477272584887299</v>
+        <v>1.456806901507617</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.648479975102919</v>
@@ -39388,7 +39160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.477681442400371</v>
+        <v>1.459311774066214</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.48826023429418</v>
@@ -39477,7 +39249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.476433342422667</v>
+        <v>1.453919107927405</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.445189653079111</v>
@@ -39566,7 +39338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.469840533767784</v>
+        <v>1.446889300746173</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.615283923798002</v>
@@ -39655,7 +39427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.477982674658071</v>
+        <v>1.44978540188563</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.586283856236695</v>
@@ -39744,7 +39516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472991846977896</v>
+        <v>1.451962067086363</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.570820200348734</v>
@@ -39833,7 +39605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.476421610327443</v>
+        <v>1.450819702489532</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.502978235357027</v>
@@ -39922,7 +39694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.468694390705356</v>
+        <v>1.439785019179102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587515772796754</v>
@@ -40011,7 +39783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.472319209671171</v>
+        <v>1.445528628180774</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.396462615958804</v>
@@ -40100,7 +39872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470106280280784</v>
+        <v>1.446808326878565</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.512120528922816</v>
@@ -40189,7 +39961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.472683076050882</v>
+        <v>1.453441575301243</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.493336366095191</v>
@@ -40278,7 +40050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.4963906886942</v>
+        <v>1.470060147606448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.133805752881134</v>
@@ -40367,7 +40139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508388979194896</v>
+        <v>1.478364231216759</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.005911778565582</v>
@@ -40456,7 +40228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.478909556089699</v>
+        <v>1.452814813556362</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.413211745683131</v>
@@ -40545,7 +40317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479564313721</v>
+        <v>1.456098704225714</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.430720898682724</v>
@@ -40634,7 +40406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49007984207472</v>
+        <v>1.462255029354484</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.569715987784513</v>
@@ -40723,7 +40495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49666627797752</v>
+        <v>1.46516593211838</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.486992811391912</v>
@@ -40812,7 +40584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.49637596105593</v>
+        <v>1.466876775598903</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.57445264366735</v>
@@ -40901,7 +40673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.495356829504644</v>
+        <v>1.467005755156903</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.483255729607003</v>
@@ -40990,7 +40762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508965696480863</v>
+        <v>1.481326734026991</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.360680765190314</v>
@@ -41079,7 +40851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.522094548133191</v>
+        <v>1.497355795457953</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.452819879708241</v>
@@ -41168,7 +40940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.520170124558047</v>
+        <v>1.496973899338218</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.311335118862303</v>
@@ -41257,7 +41029,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533318616763639</v>
+        <v>1.505959684358469</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.462558950107915</v>
@@ -41346,7 +41118,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.525587112063055</v>
+        <v>1.497533442768539</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.557217542455015</v>
@@ -41435,7 +41207,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.545968533349922</v>
+        <v>1.514785779177543</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.530898288616447</v>
@@ -41524,7 +41296,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.553395353968283</v>
+        <v>1.519028794144132</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.396249840222838</v>
@@ -41613,7 +41385,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.549984596644459</v>
+        <v>1.522194596333099</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.403059628470575</v>
@@ -41702,7 +41474,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57561012830416</v>
+        <v>1.536719954080649</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.30809069570758</v>
@@ -41791,7 +41563,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600500041487875</v>
+        <v>1.553019369481298</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.935613246799412</v>
@@ -41880,7 +41652,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.581706919928179</v>
+        <v>1.5347906333909</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.819336571530844</v>
@@ -41969,7 +41741,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580191849924079</v>
+        <v>1.535941094736432</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.831150243432359</v>
@@ -42058,7 +41830,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.579289542594183</v>
+        <v>1.539661829409576</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.818581422391453</v>
@@ -42147,7 +41919,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.587909377454502</v>
+        <v>1.547977970584739</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.02448232131785</v>
@@ -42236,7 +42008,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593508019498749</v>
+        <v>1.547275472796856</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.150753774366022</v>
@@ -42325,7 +42097,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.591331359392951</v>
+        <v>1.547256201327418</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.176014023341425</v>
@@ -42414,7 +42186,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.577045098317071</v>
+        <v>1.532045068711706</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.23921203173308</v>
@@ -42503,7 +42275,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.570405380005711</v>
+        <v>1.531963915991039</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.22002975353167</v>
@@ -42592,7 +42364,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.574955473381469</v>
+        <v>1.53940636165632</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.337836371290489</v>
@@ -42681,7 +42453,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.582780580765103</v>
+        <v>1.547907020524496</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.958083431656128</v>
@@ -42770,7 +42542,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.576117474953776</v>
+        <v>1.541894107126603</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.163920591343964</v>
@@ -42859,7 +42631,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.575900101160348</v>
+        <v>1.541335369311045</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.006753015491763</v>
@@ -42948,7 +42720,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.576463846655522</v>
+        <v>1.543703566930158</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.037831838550451</v>
@@ -43037,7 +42809,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.56973427922715</v>
+        <v>1.543914319930312</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.750826299482847</v>
@@ -43126,7 +42898,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.580733119453773</v>
+        <v>1.552475851002027</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.284695083289869</v>
@@ -43215,7 +42987,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.585938054159887</v>
+        <v>1.554220346063976</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.696413029528886</v>
@@ -43304,7 +43076,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.579519242888015</v>
+        <v>1.539280268410785</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.975148315515391</v>
@@ -43393,7 +43165,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.579315863218712</v>
+        <v>1.537998170200464</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.07655599509113</v>
@@ -43482,7 +43254,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.569523449034281</v>
+        <v>1.526475741926052</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.791675936796016</v>
@@ -43571,7 +43343,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.552813229524581</v>
+        <v>1.511985760084517</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.830688822979644</v>
@@ -43660,7 +43432,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.554821222815291</v>
+        <v>1.50932759602432</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.847912535547221</v>
@@ -43749,7 +43521,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.565542555467211</v>
+        <v>1.517035367460478</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.589219492281496</v>
@@ -43838,7 +43610,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.560759474696189</v>
+        <v>1.510630430424543</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.810902450568009</v>
@@ -43927,7 +43699,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.564916621359983</v>
+        <v>1.512878191750786</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.780204972787257</v>
@@ -44016,7 +43788,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.563378700669108</v>
+        <v>1.51165615911001</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.78222628779737</v>
@@ -44302,7 +44074,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.357600260487875</v>
+        <v>1.36961668791074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.573441818598718</v>
@@ -44391,7 +44163,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.361104498937096</v>
+        <v>1.373945223195514</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.203878253616812</v>
@@ -44480,7 +44252,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.36592418338705</v>
+        <v>1.374670799356136</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.544233178308666</v>
@@ -44569,7 +44341,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.376151240952247</v>
+        <v>1.393660008153395</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.4333599600183</v>
@@ -44658,7 +44430,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.382924410133536</v>
+        <v>1.400886305034356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.455958475016347</v>
@@ -44747,7 +44519,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.386769868015571</v>
+        <v>1.400435627035261</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.522986214717124</v>
@@ -44836,7 +44608,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.377795770019398</v>
+        <v>1.395388336464334</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.54895804955935</v>
@@ -44925,7 +44697,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.358489935153034</v>
+        <v>1.376751535381698</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.450407857509874</v>
@@ -45014,7 +44786,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.338398245432479</v>
+        <v>1.356596789175442</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.584237618669214</v>
@@ -45103,7 +44875,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.346574549370408</v>
+        <v>1.361504901657422</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.383290923656739</v>
@@ -45192,7 +44964,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.336522060004942</v>
+        <v>1.347342600591287</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.585250826311102</v>
@@ -45281,7 +45053,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.31987976391116</v>
+        <v>1.328776543811168</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.536242025467526</v>
@@ -45370,7 +45142,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.314354768033609</v>
+        <v>1.326113094964445</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.558304159748026</v>
@@ -45459,7 +45231,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.32161166821455</v>
+        <v>1.336814789367145</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.445864871629768</v>
@@ -45548,7 +45320,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.308845932420819</v>
+        <v>1.323322785143559</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.505711606891207</v>
@@ -45637,7 +45409,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.309396529267772</v>
+        <v>1.321000574519068</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.137002921776586</v>
@@ -45726,7 +45498,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.306300462732301</v>
+        <v>1.318643615727309</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.609969670778713</v>
@@ -45815,7 +45587,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.330150863845743</v>
+        <v>1.34670219584264</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.534116941495682</v>
@@ -45904,7 +45676,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.316533736286676</v>
+        <v>1.33461281953387</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.575960280094844</v>
@@ -45993,7 +45765,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.316768634520511</v>
+        <v>1.329823889179213</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.397980055389587</v>
@@ -46082,7 +45854,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.326245534388706</v>
+        <v>1.347627574357048</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.658522767705932</v>
@@ -46171,7 +45943,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.326295251711296</v>
+        <v>1.345540677299446</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.62914684091338</v>
@@ -46260,7 +46032,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.338552741053171</v>
+        <v>1.357160216012408</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.44747994960465</v>
@@ -46349,7 +46121,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.372659063833796</v>
+        <v>1.390118903227702</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.503136976349411</v>
@@ -46438,7 +46210,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.331597030315475</v>
+        <v>1.351827723856238</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.543753038387651</v>
@@ -46527,7 +46299,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.368895653053113</v>
+        <v>1.396480240909745</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.312277433068022</v>
@@ -46616,7 +46388,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.396640817526976</v>
+        <v>1.426435884777701</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.178690534269736</v>
@@ -46705,7 +46477,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.395855978138293</v>
+        <v>1.426547826519972</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380305258104913</v>
@@ -46794,7 +46566,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.395558176673915</v>
+        <v>1.429186561622828</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.400703454863774</v>
@@ -46883,7 +46655,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.420734536827581</v>
+        <v>1.456965242532204</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.490400051294434</v>
@@ -46972,7 +46744,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.442690461060011</v>
+        <v>1.474620912512853</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.41062583828269</v>
@@ -47061,7 +46833,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.464371513478845</v>
+        <v>1.505059541068188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.3524381895531</v>
@@ -47150,7 +46922,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.436687166581531</v>
+        <v>1.474253593170681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.39468118914401</v>
@@ -47239,7 +47011,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467575407637597</v>
+        <v>1.503263338754422</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.4216158549806</v>
@@ -47328,7 +47100,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.472303893208158</v>
+        <v>1.508091449727087</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.254109666369036</v>
@@ -47417,7 +47189,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.484289764013518</v>
+        <v>1.519158917646442</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.493777983498072</v>
@@ -47506,7 +47278,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.448553780496835</v>
+        <v>1.488150475523898</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.52557101628088</v>
@@ -47595,7 +47367,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.429751560208787</v>
+        <v>1.469849192940238</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.449775970049634</v>
@@ -47684,7 +47456,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450636198907127</v>
+        <v>1.489300670213964</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.229730888704568</v>
@@ -47773,7 +47545,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.466490971789788</v>
+        <v>1.505598597032731</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.359258931872832</v>
@@ -47862,7 +47634,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.471752136167033</v>
+        <v>1.510042648927128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.503119888542241</v>
@@ -47951,7 +47723,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.473770102005129</v>
+        <v>1.512365255637409</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.63317649992507</v>
@@ -48040,7 +47812,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.482077533977199</v>
+        <v>1.521510354989755</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.48910926632279</v>
@@ -48129,7 +47901,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507761260239864</v>
+        <v>1.546308881203661</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542569616405744</v>
@@ -48218,7 +47990,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.487745710202931</v>
+        <v>1.526024907250347</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.516545984136532</v>
@@ -48307,7 +48079,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.456184476771206</v>
+        <v>1.49330788669506</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.229478360451675</v>
@@ -48396,7 +48168,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.453318693344531</v>
+        <v>1.490745308310225</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.505021298507167</v>
@@ -48485,7 +48257,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.48804048684058</v>
+        <v>1.53259148118765</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.566512454722944</v>
@@ -48574,7 +48346,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.486310073153732</v>
+        <v>1.531350521860151</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.456694845959308</v>
@@ -48663,7 +48435,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.49044024453416</v>
+        <v>1.526652124918083</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.46507253299392</v>
@@ -48752,7 +48524,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.45161150400295</v>
+        <v>1.488385834108472</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.502843331870249</v>
@@ -48841,7 +48613,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.480144945460195</v>
+        <v>1.520430711440579</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.475062352423685</v>
@@ -48930,7 +48702,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.451103979656528</v>
+        <v>1.484764617147909</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.511747537961696</v>
@@ -49019,7 +48791,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.441081771572965</v>
+        <v>1.479058480525094</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.602556260028555</v>
@@ -49108,7 +48880,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.457786082234524</v>
+        <v>1.493664941162181</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.49485338287179</v>
@@ -49197,7 +48969,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.444010740491718</v>
+        <v>1.478785803239825</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.508281281761527</v>
@@ -49286,7 +49058,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.417434934740334</v>
+        <v>1.450838754990839</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.385150726166116</v>
@@ -49375,7 +49147,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.430808365752062</v>
+        <v>1.463520787041646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.533847319103997</v>
@@ -49464,7 +49236,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.418516328324522</v>
+        <v>1.451340539273537</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.665269441317457</v>
@@ -49553,7 +49325,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.444899633223727</v>
+        <v>1.479532856382007</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.144215633454925</v>
@@ -49642,7 +49414,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.492068588388163</v>
+        <v>1.525401027627673</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.479216359920756</v>
@@ -49731,7 +49503,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.501420470724714</v>
+        <v>1.533028264362787</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.480011628928903</v>
@@ -49820,7 +49592,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.461864432264768</v>
+        <v>1.489408193111534</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.525457306664626</v>
@@ -49909,7 +49681,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.428502157271128</v>
+        <v>1.458435238755362</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.483559003807584</v>
@@ -49998,7 +49770,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.43756739718379</v>
+        <v>1.460432055070728</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.24723805062957</v>
@@ -50087,7 +49859,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.458678896548151</v>
+        <v>1.494876204538844</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.600071505945441</v>
@@ -50176,7 +49948,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.459033872491228</v>
+        <v>1.487734400635091</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.340858092943468</v>
@@ -50265,7 +50037,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.481635490240377</v>
+        <v>1.518015933417812</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.310175356577323</v>
@@ -50354,7 +50126,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.491381725419613</v>
+        <v>1.526273373152751</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.606098509104848</v>
@@ -50443,7 +50215,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.476277748883392</v>
+        <v>1.51183838108371</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.420102204597158</v>
@@ -50532,7 +50304,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.491857910103552</v>
+        <v>1.530307971888518</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.450524041195673</v>
@@ -50621,7 +50393,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.481394835992603</v>
+        <v>1.516335229935698</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.650620690764319</v>
@@ -50710,7 +50482,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.461386623790812</v>
+        <v>1.496941506113358</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.56863506246892</v>
@@ -50799,7 +50571,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.458362937976685</v>
+        <v>1.4923894053299</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.482611608074293</v>
@@ -50888,7 +50660,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.458814946623661</v>
+        <v>1.48723420044363</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.664552255620733</v>
@@ -50977,7 +50749,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.441552767156184</v>
+        <v>1.475866933545943</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.568957670083218</v>
@@ -51066,7 +50838,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.441336585297815</v>
+        <v>1.474029063270509</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.392725961484351</v>
@@ -51155,7 +50927,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.46147616896729</v>
+        <v>1.495882304230721</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.539546920121167</v>
@@ -51244,7 +51016,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.468901285088671</v>
+        <v>1.504910426380816</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.602840916536686</v>
@@ -51333,7 +51105,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.499920544086476</v>
+        <v>1.531594358245221</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.472907615008236</v>
@@ -51422,7 +51194,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.489179966596063</v>
+        <v>1.528558917140936</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.634694207516104</v>
